--- a/2024/01-brumov/01-VKCT2024-Brumov.xlsx
+++ b/2024/01-brumov/01-VKCT2024-Brumov.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="18"/>
   </bookViews>
   <sheets>
     <sheet name="Předškoláci I" sheetId="1" state="visible" r:id="rId2"/>
@@ -2995,7 +2995,7 @@
     <t xml:space="preserve">41</t>
   </si>
   <si>
-    <t xml:space="preserve">Slovak Josef</t>
+    <t xml:space="preserve">Slovák Josef</t>
   </si>
   <si>
     <t xml:space="preserve">1959</t>
@@ -3230,7 +3230,7 @@
   </sheetPr>
   <dimension ref="A1:P100"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E9" activeCellId="0" sqref="E9"/>
     </sheetView>
   </sheetViews>
@@ -19768,8 +19768,8 @@
   </sheetPr>
   <dimension ref="A1:P1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A18" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E23" activeCellId="0" sqref="E23"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A18" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E38" activeCellId="0" sqref="E38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/2024/01-brumov/01-VKCT2024-Brumov.xlsx
+++ b/2024/01-brumov/01-VKCT2024-Brumov.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="18"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="16"/>
   </bookViews>
   <sheets>
     <sheet name="Předškoláci I" sheetId="1" state="visible" r:id="rId2"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3246" uniqueCount="999">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3246" uniqueCount="997">
   <si>
     <t xml:space="preserve">KATEGORIE</t>
   </si>
@@ -940,9 +940,6 @@
     <t xml:space="preserve">Bodná Emma</t>
   </si>
   <si>
-    <t xml:space="preserve">ValašSVKé Klobouky</t>
-  </si>
-  <si>
     <t xml:space="preserve">Lamačka Patrik</t>
   </si>
   <si>
@@ -2089,7 +2086,7 @@
     <t xml:space="preserve">1972</t>
   </si>
   <si>
-    <t xml:space="preserve">Snow and Bike ValašSVKé Klobouky</t>
+    <t xml:space="preserve">Snow and Bike Valašské Klobouky</t>
   </si>
   <si>
     <t xml:space="preserve">Muži - M1 (1985-2006)</t>
@@ -2311,9 +2308,6 @@
     <t xml:space="preserve">1975</t>
   </si>
   <si>
-    <t xml:space="preserve">Snow and Bike ValašSVKé klobouky</t>
-  </si>
-  <si>
     <t xml:space="preserve">02:52:12</t>
   </si>
   <si>
@@ -2449,7 +2443,7 @@
     <t xml:space="preserve">M3</t>
   </si>
   <si>
-    <t xml:space="preserve">Cyklosport Kolex ValašSVKé Klobouky</t>
+    <t xml:space="preserve">Cyklosport Kolex Valašské Klobouky</t>
   </si>
   <si>
     <t xml:space="preserve">03:22:57</t>
@@ -5415,7 +5409,7 @@
         <v>0</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>2</v>
@@ -5488,16 +5482,16 @@
         <v>409</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="F4" s="6" t="s">
         <v>29</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="H4" s="6" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="I4" s="6" t="s">
         <v>31</v>
@@ -5507,7 +5501,7 @@
         <v>25</v>
       </c>
       <c r="L4" s="6" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="M4" s="6"/>
       <c r="N4" s="6"/>
@@ -5528,29 +5522,29 @@
         <v>427</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="F5" s="6" t="s">
         <v>29</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="H5" s="6" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="I5" s="6" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="J5" s="6"/>
       <c r="K5" s="6" t="s">
         <v>25</v>
       </c>
       <c r="L5" s="6" t="s">
+        <v>595</v>
+      </c>
+      <c r="M5" s="6" t="s">
         <v>596</v>
-      </c>
-      <c r="M5" s="6" t="s">
-        <v>597</v>
       </c>
       <c r="N5" s="6"/>
       <c r="O5" s="6"/>
@@ -5570,26 +5564,26 @@
         <v>410</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="F6" s="6" t="s">
         <v>29</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="H6" s="6" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="I6" s="6" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="J6" s="6"/>
       <c r="K6" s="6" t="s">
         <v>25</v>
       </c>
       <c r="L6" s="6" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="M6" s="6" t="s">
         <v>75</v>
@@ -5612,16 +5606,16 @@
         <v>418</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="F7" s="6" t="s">
         <v>29</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="H7" s="6" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="I7" s="6" t="s">
         <v>204</v>
@@ -5631,10 +5625,10 @@
         <v>25</v>
       </c>
       <c r="L7" s="6" t="s">
+        <v>601</v>
+      </c>
+      <c r="M7" s="6" t="s">
         <v>602</v>
-      </c>
-      <c r="M7" s="6" t="s">
-        <v>603</v>
       </c>
       <c r="N7" s="6"/>
       <c r="O7" s="6"/>
@@ -5654,29 +5648,29 @@
         <v>420</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="F8" s="6" t="s">
         <v>29</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="H8" s="6" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="I8" s="6" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="J8" s="6"/>
       <c r="K8" s="6" t="s">
         <v>25</v>
       </c>
       <c r="L8" s="6" t="s">
+        <v>604</v>
+      </c>
+      <c r="M8" s="6" t="s">
         <v>605</v>
-      </c>
-      <c r="M8" s="6" t="s">
-        <v>606</v>
       </c>
       <c r="N8" s="6"/>
       <c r="O8" s="6"/>
@@ -5696,16 +5690,16 @@
         <v>403</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="F9" s="6" t="s">
         <v>29</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="H9" s="6" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="I9" s="6" t="s">
         <v>190</v>
@@ -5715,10 +5709,10 @@
         <v>25</v>
       </c>
       <c r="L9" s="6" t="s">
+        <v>607</v>
+      </c>
+      <c r="M9" s="6" t="s">
         <v>608</v>
-      </c>
-      <c r="M9" s="6" t="s">
-        <v>609</v>
       </c>
       <c r="N9" s="6"/>
       <c r="O9" s="6"/>
@@ -5738,29 +5732,29 @@
         <v>437</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="F10" s="6" t="s">
         <v>29</v>
       </c>
       <c r="G10" s="6" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="H10" s="6" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="I10" s="6" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="J10" s="6"/>
       <c r="K10" s="6" t="s">
         <v>25</v>
       </c>
       <c r="L10" s="6" t="s">
+        <v>611</v>
+      </c>
+      <c r="M10" s="6" t="s">
         <v>612</v>
-      </c>
-      <c r="M10" s="6" t="s">
-        <v>613</v>
       </c>
       <c r="N10" s="6"/>
       <c r="O10" s="6"/>
@@ -5780,16 +5774,16 @@
         <v>413</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="F11" s="6" t="s">
         <v>29</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="H11" s="6" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="I11" s="6" t="s">
         <v>190</v>
@@ -5799,10 +5793,10 @@
         <v>25</v>
       </c>
       <c r="L11" s="6" t="s">
+        <v>614</v>
+      </c>
+      <c r="M11" s="6" t="s">
         <v>615</v>
-      </c>
-      <c r="M11" s="6" t="s">
-        <v>616</v>
       </c>
       <c r="N11" s="6"/>
       <c r="O11" s="6"/>
@@ -5822,29 +5816,29 @@
         <v>425</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="F12" s="6" t="s">
         <v>29</v>
       </c>
       <c r="G12" s="6" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="H12" s="6" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="I12" s="6" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="J12" s="6"/>
       <c r="K12" s="6" t="s">
         <v>25</v>
       </c>
       <c r="L12" s="6" t="s">
+        <v>618</v>
+      </c>
+      <c r="M12" s="6" t="s">
         <v>619</v>
-      </c>
-      <c r="M12" s="6" t="s">
-        <v>620</v>
       </c>
       <c r="N12" s="6"/>
       <c r="O12" s="6"/>
@@ -5864,29 +5858,29 @@
         <v>406</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="F13" s="6" t="s">
         <v>29</v>
       </c>
       <c r="G13" s="6" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="H13" s="6" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="I13" s="6" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="J13" s="6"/>
       <c r="K13" s="6" t="s">
         <v>25</v>
       </c>
       <c r="L13" s="6" t="s">
+        <v>622</v>
+      </c>
+      <c r="M13" s="6" t="s">
         <v>623</v>
-      </c>
-      <c r="M13" s="6" t="s">
-        <v>624</v>
       </c>
       <c r="N13" s="6"/>
       <c r="O13" s="6"/>
@@ -5906,29 +5900,29 @@
         <v>416</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="F14" s="6" t="s">
         <v>29</v>
       </c>
       <c r="G14" s="6" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="H14" s="6" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="I14" s="6" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="J14" s="6"/>
       <c r="K14" s="6" t="s">
         <v>52</v>
       </c>
       <c r="L14" s="6" t="s">
+        <v>626</v>
+      </c>
+      <c r="M14" s="6" t="s">
         <v>627</v>
-      </c>
-      <c r="M14" s="6" t="s">
-        <v>628</v>
       </c>
       <c r="N14" s="6"/>
       <c r="O14" s="6"/>
@@ -5944,19 +5938,19 @@
         <v>405</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="F15" s="6" t="s">
         <v>29</v>
       </c>
       <c r="G15" s="6" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="H15" s="6" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="I15" s="6" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="J15" s="6"/>
       <c r="K15" s="6" t="s">
@@ -5980,19 +5974,19 @@
         <v>419</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="F16" s="6" t="s">
         <v>29</v>
       </c>
       <c r="G16" s="6" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="H16" s="6" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="I16" s="6" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="J16" s="6"/>
       <c r="K16" s="6" t="s">
@@ -7155,7 +7149,7 @@
         <v>0</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>2</v>
@@ -7233,29 +7227,29 @@
         <v>202</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="F4" s="6" t="s">
         <v>21</v>
       </c>
       <c r="G4" s="6" t="s">
+        <v>633</v>
+      </c>
+      <c r="H4" s="6" t="s">
         <v>634</v>
       </c>
-      <c r="H4" s="6" t="s">
-        <v>635</v>
-      </c>
       <c r="I4" s="6" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="J4" s="6"/>
       <c r="K4" s="6" t="s">
         <v>25</v>
       </c>
       <c r="L4" s="6" t="s">
+        <v>635</v>
+      </c>
+      <c r="M4" s="6" t="s">
         <v>636</v>
-      </c>
-      <c r="M4" s="6" t="s">
-        <v>637</v>
       </c>
       <c r="N4" s="6"/>
       <c r="O4" s="6"/>
@@ -7275,16 +7269,16 @@
         <v>235</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="F5" s="6" t="s">
         <v>21</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="H5" s="6" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="I5" s="6"/>
       <c r="J5" s="6"/>
@@ -7292,10 +7286,10 @@
         <v>25</v>
       </c>
       <c r="L5" s="6" t="s">
+        <v>639</v>
+      </c>
+      <c r="M5" s="6" t="s">
         <v>640</v>
-      </c>
-      <c r="M5" s="6" t="s">
-        <v>641</v>
       </c>
       <c r="N5" s="6"/>
       <c r="O5" s="6"/>
@@ -8588,7 +8582,7 @@
         <v>0</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>2</v>
@@ -8666,16 +8660,16 @@
         <v>232</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="F4" s="6" t="s">
         <v>29</v>
       </c>
       <c r="G4" s="6" t="s">
+        <v>643</v>
+      </c>
+      <c r="H4" s="6" t="s">
         <v>644</v>
-      </c>
-      <c r="H4" s="6" t="s">
-        <v>645</v>
       </c>
       <c r="I4" s="6"/>
       <c r="J4" s="6"/>
@@ -8683,10 +8677,10 @@
         <v>25</v>
       </c>
       <c r="L4" s="6" t="s">
+        <v>645</v>
+      </c>
+      <c r="M4" s="6" t="s">
         <v>646</v>
-      </c>
-      <c r="M4" s="6" t="s">
-        <v>647</v>
       </c>
       <c r="N4" s="6"/>
       <c r="O4" s="6"/>
@@ -8706,29 +8700,29 @@
         <v>240</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="F5" s="6" t="s">
         <v>29</v>
       </c>
       <c r="G5" s="6" t="s">
+        <v>643</v>
+      </c>
+      <c r="H5" s="6" t="s">
         <v>644</v>
       </c>
-      <c r="H5" s="6" t="s">
-        <v>645</v>
-      </c>
       <c r="I5" s="6" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="J5" s="6"/>
       <c r="K5" s="6" t="s">
         <v>25</v>
       </c>
       <c r="L5" s="6" t="s">
+        <v>649</v>
+      </c>
+      <c r="M5" s="6" t="s">
         <v>650</v>
-      </c>
-      <c r="M5" s="6" t="s">
-        <v>651</v>
       </c>
       <c r="N5" s="6"/>
       <c r="O5" s="6"/>
@@ -8748,16 +8742,16 @@
         <v>204</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="F6" s="6" t="s">
         <v>29</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="H6" s="6" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="I6" s="6" t="s">
         <v>190</v>
@@ -8767,10 +8761,10 @@
         <v>25</v>
       </c>
       <c r="L6" s="6" t="s">
+        <v>652</v>
+      </c>
+      <c r="M6" s="6" t="s">
         <v>653</v>
-      </c>
-      <c r="M6" s="6" t="s">
-        <v>654</v>
       </c>
       <c r="N6" s="6"/>
       <c r="O6" s="6"/>
@@ -8790,16 +8784,16 @@
         <v>253</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="F7" s="6" t="s">
         <v>29</v>
       </c>
       <c r="G7" s="6" t="s">
+        <v>643</v>
+      </c>
+      <c r="H7" s="6" t="s">
         <v>644</v>
-      </c>
-      <c r="H7" s="6" t="s">
-        <v>645</v>
       </c>
       <c r="I7" s="6" t="s">
         <v>37</v>
@@ -8809,10 +8803,10 @@
         <v>25</v>
       </c>
       <c r="L7" s="6" t="s">
+        <v>655</v>
+      </c>
+      <c r="M7" s="6" t="s">
         <v>656</v>
-      </c>
-      <c r="M7" s="6" t="s">
-        <v>657</v>
       </c>
       <c r="N7" s="6"/>
       <c r="O7" s="6"/>
@@ -8832,29 +8826,29 @@
         <v>217</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="F8" s="6" t="s">
         <v>29</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="H8" s="6" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="I8" s="6" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="J8" s="6"/>
       <c r="K8" s="6" t="s">
         <v>25</v>
       </c>
       <c r="L8" s="6" t="s">
+        <v>658</v>
+      </c>
+      <c r="M8" s="6" t="s">
         <v>659</v>
-      </c>
-      <c r="M8" s="6" t="s">
-        <v>660</v>
       </c>
       <c r="N8" s="6"/>
       <c r="O8" s="6"/>
@@ -8874,16 +8868,16 @@
         <v>252</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="F9" s="6" t="s">
         <v>29</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="H9" s="6" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="I9" s="6" t="s">
         <v>37</v>
@@ -8893,10 +8887,10 @@
         <v>25</v>
       </c>
       <c r="L9" s="6" t="s">
+        <v>661</v>
+      </c>
+      <c r="M9" s="6" t="s">
         <v>662</v>
-      </c>
-      <c r="M9" s="6" t="s">
-        <v>663</v>
       </c>
       <c r="N9" s="6"/>
       <c r="O9" s="6"/>
@@ -8916,16 +8910,16 @@
         <v>254</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="F10" s="6" t="s">
         <v>29</v>
       </c>
       <c r="G10" s="6" t="s">
+        <v>643</v>
+      </c>
+      <c r="H10" s="6" t="s">
         <v>644</v>
-      </c>
-      <c r="H10" s="6" t="s">
-        <v>645</v>
       </c>
       <c r="I10" s="6" t="s">
         <v>37</v>
@@ -8935,10 +8929,10 @@
         <v>25</v>
       </c>
       <c r="L10" s="6" t="s">
+        <v>664</v>
+      </c>
+      <c r="M10" s="6" t="s">
         <v>665</v>
-      </c>
-      <c r="M10" s="6" t="s">
-        <v>666</v>
       </c>
       <c r="N10" s="6"/>
       <c r="O10" s="6"/>
@@ -10171,7 +10165,7 @@
         <v>0</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>2</v>
@@ -10249,29 +10243,29 @@
         <v>8</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="F4" s="6" t="s">
         <v>21</v>
       </c>
       <c r="G4" s="6" t="s">
+        <v>668</v>
+      </c>
+      <c r="H4" s="6" t="s">
         <v>669</v>
       </c>
-      <c r="H4" s="6" t="s">
+      <c r="I4" s="6" t="s">
         <v>670</v>
-      </c>
-      <c r="I4" s="6" t="s">
-        <v>671</v>
       </c>
       <c r="J4" s="6"/>
       <c r="K4" s="6" t="s">
         <v>25</v>
       </c>
       <c r="L4" s="6" t="s">
+        <v>671</v>
+      </c>
+      <c r="M4" s="6" t="s">
         <v>672</v>
-      </c>
-      <c r="M4" s="6" t="s">
-        <v>673</v>
       </c>
       <c r="N4" s="6"/>
       <c r="O4" s="6"/>
@@ -10291,29 +10285,29 @@
         <v>32</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="F5" s="6" t="s">
         <v>21</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="H5" s="6" t="s">
+        <v>674</v>
+      </c>
+      <c r="I5" s="6" t="s">
         <v>675</v>
-      </c>
-      <c r="I5" s="6" t="s">
-        <v>676</v>
       </c>
       <c r="J5" s="6"/>
       <c r="K5" s="6" t="s">
         <v>25</v>
       </c>
       <c r="L5" s="6" t="s">
+        <v>676</v>
+      </c>
+      <c r="M5" s="6" t="s">
         <v>677</v>
-      </c>
-      <c r="M5" s="6" t="s">
-        <v>678</v>
       </c>
       <c r="N5" s="6"/>
       <c r="O5" s="6"/>
@@ -11616,7 +11610,7 @@
         <v>0</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>2</v>
@@ -11703,19 +11697,19 @@
         <v>29</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="F4" s="6" t="s">
         <v>21</v>
       </c>
       <c r="G4" s="6" t="s">
+        <v>680</v>
+      </c>
+      <c r="H4" s="6" t="s">
         <v>681</v>
       </c>
-      <c r="H4" s="6" t="s">
+      <c r="I4" s="6" t="s">
         <v>682</v>
-      </c>
-      <c r="I4" s="6" t="s">
-        <v>683</v>
       </c>
       <c r="J4" s="6"/>
       <c r="K4" s="6" t="s">
@@ -13047,7 +13041,7 @@
         <v>0</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>2</v>
@@ -13125,29 +13119,29 @@
         <v>1</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="F4" s="6" t="s">
         <v>29</v>
       </c>
       <c r="G4" s="6" t="s">
+        <v>685</v>
+      </c>
+      <c r="H4" s="6" t="s">
         <v>686</v>
       </c>
-      <c r="H4" s="6" t="s">
+      <c r="I4" s="6" t="s">
         <v>687</v>
-      </c>
-      <c r="I4" s="6" t="s">
-        <v>688</v>
       </c>
       <c r="J4" s="6"/>
       <c r="K4" s="6" t="s">
         <v>25</v>
       </c>
       <c r="L4" s="6" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="M4" s="6" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="N4" s="6"/>
       <c r="O4" s="6"/>
@@ -13167,29 +13161,29 @@
         <v>25</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="F5" s="6" t="s">
         <v>29</v>
       </c>
       <c r="G5" s="6" t="s">
+        <v>685</v>
+      </c>
+      <c r="H5" s="6" t="s">
         <v>686</v>
       </c>
-      <c r="H5" s="6" t="s">
-        <v>687</v>
-      </c>
       <c r="I5" s="6" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="J5" s="6"/>
       <c r="K5" s="6" t="s">
         <v>25</v>
       </c>
       <c r="L5" s="6" t="s">
+        <v>691</v>
+      </c>
+      <c r="M5" s="6" t="s">
         <v>692</v>
-      </c>
-      <c r="M5" s="6" t="s">
-        <v>693</v>
       </c>
       <c r="N5" s="6"/>
       <c r="O5" s="6"/>
@@ -13209,29 +13203,29 @@
         <v>17</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="F6" s="6" t="s">
         <v>29</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="H6" s="6" t="s">
+        <v>694</v>
+      </c>
+      <c r="I6" s="6" t="s">
         <v>695</v>
-      </c>
-      <c r="I6" s="6" t="s">
-        <v>696</v>
       </c>
       <c r="J6" s="6"/>
       <c r="K6" s="6" t="s">
         <v>25</v>
       </c>
       <c r="L6" s="6" t="s">
+        <v>696</v>
+      </c>
+      <c r="M6" s="6" t="s">
         <v>697</v>
-      </c>
-      <c r="M6" s="6" t="s">
-        <v>698</v>
       </c>
       <c r="N6" s="6"/>
       <c r="O6" s="6"/>
@@ -13251,29 +13245,29 @@
         <v>36</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="F7" s="6" t="s">
         <v>29</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="H7" s="6" t="s">
+        <v>699</v>
+      </c>
+      <c r="I7" s="6" t="s">
         <v>700</v>
-      </c>
-      <c r="I7" s="6" t="s">
-        <v>701</v>
       </c>
       <c r="J7" s="6"/>
       <c r="K7" s="6" t="s">
         <v>25</v>
       </c>
       <c r="L7" s="6" t="s">
+        <v>701</v>
+      </c>
+      <c r="M7" s="6" t="s">
         <v>702</v>
-      </c>
-      <c r="M7" s="6" t="s">
-        <v>703</v>
       </c>
       <c r="N7" s="6"/>
       <c r="O7" s="6"/>
@@ -13293,29 +13287,29 @@
         <v>39</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="F8" s="6" t="s">
         <v>29</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="H8" s="6" t="s">
+        <v>704</v>
+      </c>
+      <c r="I8" s="6" t="s">
         <v>705</v>
-      </c>
-      <c r="I8" s="6" t="s">
-        <v>706</v>
       </c>
       <c r="J8" s="6"/>
       <c r="K8" s="6" t="s">
         <v>52</v>
       </c>
       <c r="L8" s="6" t="s">
+        <v>706</v>
+      </c>
+      <c r="M8" s="6" t="s">
         <v>707</v>
-      </c>
-      <c r="M8" s="6" t="s">
-        <v>708</v>
       </c>
       <c r="N8" s="6"/>
       <c r="O8" s="6"/>
@@ -13335,29 +13329,29 @@
         <v>5</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="F9" s="6" t="s">
         <v>29</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="H9" s="6" t="s">
+        <v>709</v>
+      </c>
+      <c r="I9" s="6" t="s">
         <v>710</v>
-      </c>
-      <c r="I9" s="6" t="s">
-        <v>711</v>
       </c>
       <c r="J9" s="6"/>
       <c r="K9" s="6" t="s">
         <v>25</v>
       </c>
       <c r="L9" s="6" t="s">
+        <v>711</v>
+      </c>
+      <c r="M9" s="6" t="s">
         <v>712</v>
-      </c>
-      <c r="M9" s="6" t="s">
-        <v>713</v>
       </c>
       <c r="N9" s="6"/>
       <c r="O9" s="6"/>
@@ -13377,16 +13371,16 @@
         <v>34</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="F10" s="6" t="s">
         <v>29</v>
       </c>
       <c r="G10" s="6" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="H10" s="6" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="I10" s="6"/>
       <c r="J10" s="6"/>
@@ -13394,10 +13388,10 @@
         <v>25</v>
       </c>
       <c r="L10" s="6" t="s">
+        <v>715</v>
+      </c>
+      <c r="M10" s="6" t="s">
         <v>716</v>
-      </c>
-      <c r="M10" s="6" t="s">
-        <v>717</v>
       </c>
       <c r="N10" s="6"/>
       <c r="O10" s="6"/>
@@ -13417,29 +13411,29 @@
         <v>23</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="F11" s="6" t="s">
         <v>29</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="H11" s="6" t="s">
+        <v>718</v>
+      </c>
+      <c r="I11" s="6" t="s">
         <v>719</v>
-      </c>
-      <c r="I11" s="6" t="s">
-        <v>720</v>
       </c>
       <c r="J11" s="6"/>
       <c r="K11" s="6" t="s">
         <v>52</v>
       </c>
       <c r="L11" s="6" t="s">
+        <v>720</v>
+      </c>
+      <c r="M11" s="6" t="s">
         <v>721</v>
-      </c>
-      <c r="M11" s="6" t="s">
-        <v>722</v>
       </c>
       <c r="N11" s="6"/>
       <c r="O11" s="6"/>
@@ -13459,16 +13453,16 @@
         <v>16</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="F12" s="6" t="s">
         <v>29</v>
       </c>
       <c r="G12" s="6" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="H12" s="6" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="I12" s="6" t="s">
         <v>37</v>
@@ -13478,10 +13472,10 @@
         <v>25</v>
       </c>
       <c r="L12" s="6" t="s">
+        <v>723</v>
+      </c>
+      <c r="M12" s="6" t="s">
         <v>724</v>
-      </c>
-      <c r="M12" s="6" t="s">
-        <v>725</v>
       </c>
       <c r="N12" s="6"/>
       <c r="O12" s="6"/>
@@ -13501,16 +13495,16 @@
         <v>38</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="F13" s="6" t="s">
         <v>29</v>
       </c>
       <c r="G13" s="6" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="H13" s="6" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="I13" s="6" t="s">
         <v>37</v>
@@ -13520,10 +13514,10 @@
         <v>25</v>
       </c>
       <c r="L13" s="6" t="s">
+        <v>727</v>
+      </c>
+      <c r="M13" s="6" t="s">
         <v>728</v>
-      </c>
-      <c r="M13" s="6" t="s">
-        <v>729</v>
       </c>
       <c r="N13" s="6"/>
       <c r="O13" s="6"/>
@@ -13531,7 +13525,7 @@
     </row>
     <row r="14" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="6" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="B14" s="6"/>
       <c r="C14" s="6"/>
@@ -13539,16 +13533,16 @@
         <v>24</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="F14" s="6" t="s">
         <v>29</v>
       </c>
       <c r="G14" s="6" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="H14" s="6" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="I14" s="6" t="s">
         <v>296</v>
@@ -13558,10 +13552,10 @@
         <v>25</v>
       </c>
       <c r="L14" s="6" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="M14" s="6" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="N14" s="6"/>
       <c r="O14" s="6"/>
@@ -13569,7 +13563,7 @@
     </row>
     <row r="15" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="6" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="B15" s="6"/>
       <c r="C15" s="6"/>
@@ -13577,29 +13571,29 @@
         <v>33</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="F15" s="6" t="s">
         <v>29</v>
       </c>
       <c r="G15" s="6" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="H15" s="6" t="s">
+        <v>734</v>
+      </c>
+      <c r="I15" s="6" t="s">
         <v>735</v>
-      </c>
-      <c r="I15" s="6" t="s">
-        <v>736</v>
       </c>
       <c r="J15" s="6"/>
       <c r="K15" s="6" t="s">
         <v>52</v>
       </c>
       <c r="L15" s="6" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="M15" s="6" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="N15" s="6"/>
       <c r="O15" s="6"/>
@@ -13607,7 +13601,7 @@
     </row>
     <row r="16" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="6" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="B16" s="6"/>
       <c r="C16" s="6"/>
@@ -13615,29 +13609,29 @@
         <v>11</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="F16" s="6" t="s">
         <v>29</v>
       </c>
       <c r="G16" s="6" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="H16" s="6" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="I16" s="6" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="J16" s="6"/>
       <c r="K16" s="6" t="s">
         <v>25</v>
       </c>
       <c r="L16" s="6" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="M16" s="6" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="N16" s="6"/>
       <c r="O16" s="6"/>
@@ -13653,19 +13647,19 @@
         <v>3</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="F17" s="6" t="s">
         <v>29</v>
       </c>
       <c r="G17" s="6" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="H17" s="6" t="s">
+        <v>739</v>
+      </c>
+      <c r="I17" s="6" t="s">
         <v>740</v>
-      </c>
-      <c r="I17" s="6" t="s">
-        <v>741</v>
       </c>
       <c r="J17" s="6"/>
       <c r="K17" s="6" t="s">
@@ -13689,19 +13683,19 @@
         <v>15</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="F18" s="6" t="s">
         <v>29</v>
       </c>
       <c r="G18" s="6" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="H18" s="6" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="I18" s="6" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="J18" s="6"/>
       <c r="K18" s="6" t="s">
@@ -13725,16 +13719,16 @@
         <v>27</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="F19" s="6" t="s">
         <v>29</v>
       </c>
       <c r="G19" s="6" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="H19" s="6" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="I19" s="6" t="s">
         <v>169</v>
@@ -14861,7 +14855,7 @@
         <v>0</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>2</v>
@@ -14939,26 +14933,26 @@
         <v>10</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="F4" s="6" t="s">
         <v>29</v>
       </c>
       <c r="G4" s="6" t="s">
+        <v>745</v>
+      </c>
+      <c r="H4" s="6" t="s">
         <v>746</v>
       </c>
-      <c r="H4" s="6" t="s">
+      <c r="I4" s="6" t="s">
         <v>747</v>
-      </c>
-      <c r="I4" s="6" t="s">
-        <v>748</v>
       </c>
       <c r="J4" s="6"/>
       <c r="K4" s="6" t="s">
         <v>25</v>
       </c>
       <c r="L4" s="6" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="M4" s="6"/>
       <c r="N4" s="6"/>
@@ -14979,29 +14973,29 @@
         <v>6</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="F5" s="6" t="s">
         <v>29</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="H5" s="6" t="s">
+        <v>750</v>
+      </c>
+      <c r="I5" s="6" t="s">
         <v>751</v>
-      </c>
-      <c r="I5" s="6" t="s">
-        <v>752</v>
       </c>
       <c r="J5" s="6"/>
       <c r="K5" s="6" t="s">
         <v>25</v>
       </c>
       <c r="L5" s="6" t="s">
+        <v>752</v>
+      </c>
+      <c r="M5" s="6" t="s">
         <v>753</v>
-      </c>
-      <c r="M5" s="6" t="s">
-        <v>754</v>
       </c>
       <c r="N5" s="6"/>
       <c r="O5" s="6"/>
@@ -15021,29 +15015,29 @@
         <v>2</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="F6" s="6" t="s">
         <v>29</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="H6" s="6" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="I6" s="6" t="s">
-        <v>757</v>
+        <v>682</v>
       </c>
       <c r="J6" s="6"/>
       <c r="K6" s="6" t="s">
         <v>25</v>
       </c>
       <c r="L6" s="6" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="M6" s="6" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
       <c r="N6" s="6"/>
       <c r="O6" s="6"/>
@@ -15063,29 +15057,29 @@
         <v>41</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="F7" s="6" t="s">
         <v>29</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="H7" s="6" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="I7" s="6" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="J7" s="6"/>
       <c r="K7" s="6" t="s">
         <v>25</v>
       </c>
       <c r="L7" s="6" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="M7" s="6" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="N7" s="6"/>
       <c r="O7" s="6"/>
@@ -15105,16 +15099,16 @@
         <v>42</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="F8" s="6" t="s">
         <v>29</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="H8" s="6" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
       <c r="I8" s="6"/>
       <c r="J8" s="6"/>
@@ -15122,10 +15116,10 @@
         <v>52</v>
       </c>
       <c r="L8" s="6" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
       <c r="M8" s="6" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
       <c r="N8" s="6"/>
       <c r="O8" s="6"/>
@@ -15145,29 +15139,29 @@
         <v>14</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
       <c r="F9" s="6" t="s">
         <v>29</v>
       </c>
       <c r="G9" s="6" t="s">
+        <v>745</v>
+      </c>
+      <c r="H9" s="6" t="s">
         <v>746</v>
       </c>
-      <c r="H9" s="6" t="s">
-        <v>747</v>
-      </c>
       <c r="I9" s="6" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
       <c r="J9" s="6"/>
       <c r="K9" s="6" t="s">
         <v>25</v>
       </c>
       <c r="L9" s="6" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
       <c r="M9" s="6" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
       <c r="N9" s="6"/>
       <c r="O9" s="6"/>
@@ -15187,16 +15181,16 @@
         <v>35</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="F10" s="6" t="s">
         <v>29</v>
       </c>
       <c r="G10" s="6" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="H10" s="6" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
       <c r="I10" s="6"/>
       <c r="J10" s="6"/>
@@ -15204,10 +15198,10 @@
         <v>52</v>
       </c>
       <c r="L10" s="6" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
       <c r="M10" s="6" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
       <c r="N10" s="6"/>
       <c r="O10" s="6"/>
@@ -15227,29 +15221,29 @@
         <v>18</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
       <c r="F11" s="6" t="s">
         <v>29</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="H11" s="6" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
       <c r="I11" s="6" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
       <c r="J11" s="6"/>
       <c r="K11" s="6" t="s">
         <v>52</v>
       </c>
       <c r="L11" s="6" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
       <c r="M11" s="6" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
       <c r="N11" s="6"/>
       <c r="O11" s="6"/>
@@ -15269,29 +15263,29 @@
         <v>20</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
       <c r="F12" s="6" t="s">
         <v>29</v>
       </c>
       <c r="G12" s="6" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="H12" s="6" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="I12" s="6" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
       <c r="J12" s="6"/>
       <c r="K12" s="6" t="s">
         <v>25</v>
       </c>
       <c r="L12" s="6" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
       <c r="M12" s="6" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
       <c r="N12" s="6"/>
       <c r="O12" s="6"/>
@@ -15311,29 +15305,29 @@
         <v>31</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
       <c r="F13" s="6" t="s">
         <v>29</v>
       </c>
       <c r="G13" s="6" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="H13" s="6" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
       <c r="I13" s="6" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="J13" s="6"/>
       <c r="K13" s="6" t="s">
         <v>25</v>
       </c>
       <c r="L13" s="6" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
       <c r="M13" s="6" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
       <c r="N13" s="6"/>
       <c r="O13" s="6"/>
@@ -15353,29 +15347,29 @@
         <v>12</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
       <c r="F14" s="6" t="s">
         <v>29</v>
       </c>
       <c r="G14" s="6" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="H14" s="6" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="I14" s="6" t="s">
-        <v>791</v>
+        <v>789</v>
       </c>
       <c r="J14" s="6"/>
       <c r="K14" s="6" t="s">
         <v>25</v>
       </c>
       <c r="L14" s="6" t="s">
-        <v>792</v>
+        <v>790</v>
       </c>
       <c r="M14" s="6" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="N14" s="6"/>
       <c r="O14" s="6"/>
@@ -15383,7 +15377,7 @@
     </row>
     <row r="15" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="6" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="B15" s="6"/>
       <c r="C15" s="6"/>
@@ -15391,29 +15385,29 @@
         <v>40</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="F15" s="6" t="s">
         <v>29</v>
       </c>
       <c r="G15" s="6" t="s">
+        <v>745</v>
+      </c>
+      <c r="H15" s="6" t="s">
         <v>746</v>
       </c>
-      <c r="H15" s="6" t="s">
-        <v>747</v>
-      </c>
       <c r="I15" s="6" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="J15" s="6"/>
       <c r="K15" s="6" t="s">
         <v>25</v>
       </c>
       <c r="L15" s="6" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="M15" s="6" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="N15" s="6"/>
       <c r="O15" s="6"/>
@@ -15429,19 +15423,19 @@
         <v>4</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="F16" s="6" t="s">
         <v>29</v>
       </c>
       <c r="G16" s="6" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="H16" s="6" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
       <c r="I16" s="6" t="s">
-        <v>300</v>
+        <v>42</v>
       </c>
       <c r="J16" s="6"/>
       <c r="K16" s="6" t="s">
@@ -15465,19 +15459,19 @@
         <v>21</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
       <c r="F17" s="6" t="s">
         <v>29</v>
       </c>
       <c r="G17" s="6" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="H17" s="6" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="I17" s="6" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
       <c r="J17" s="6"/>
       <c r="K17" s="6" t="s">
@@ -16593,8 +16587,8 @@
   </sheetPr>
   <dimension ref="A1:P100"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A11" activeCellId="0" sqref="A11"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I17" activeCellId="0" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -16622,7 +16616,7 @@
         <v>0</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>2</v>
@@ -16700,29 +16694,29 @@
         <v>7</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
       <c r="F4" s="6" t="s">
         <v>29</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>802</v>
+        <v>800</v>
       </c>
       <c r="H4" s="6" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="I4" s="6" t="s">
-        <v>803</v>
+        <v>801</v>
       </c>
       <c r="J4" s="6"/>
       <c r="K4" s="6" t="s">
         <v>25</v>
       </c>
       <c r="L4" s="6" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="M4" s="6" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
       <c r="N4" s="6"/>
       <c r="O4" s="6"/>
@@ -16742,16 +16736,16 @@
         <v>37</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="F5" s="6" t="s">
         <v>29</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>802</v>
+        <v>800</v>
       </c>
       <c r="H5" s="6" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="I5" s="6" t="s">
         <v>254</v>
@@ -16761,10 +16755,10 @@
         <v>25</v>
       </c>
       <c r="L5" s="6" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="M5" s="6" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="N5" s="6"/>
       <c r="O5" s="6"/>
@@ -16784,29 +16778,29 @@
         <v>22</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="F6" s="6" t="s">
         <v>29</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>802</v>
+        <v>800</v>
       </c>
       <c r="H6" s="6" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="I6" s="6" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="J6" s="6"/>
       <c r="K6" s="6" t="s">
         <v>25</v>
       </c>
       <c r="L6" s="6" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="M6" s="6" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="N6" s="6"/>
       <c r="O6" s="6"/>
@@ -16826,29 +16820,29 @@
         <v>26</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="F7" s="6" t="s">
         <v>29</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>802</v>
+        <v>800</v>
       </c>
       <c r="H7" s="6" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="I7" s="6" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="J7" s="6"/>
       <c r="K7" s="6" t="s">
         <v>25</v>
       </c>
       <c r="L7" s="6" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="M7" s="6" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
       <c r="N7" s="6"/>
       <c r="O7" s="6"/>
@@ -16868,29 +16862,29 @@
         <v>28</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
       <c r="F8" s="6" t="s">
         <v>29</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>802</v>
+        <v>800</v>
       </c>
       <c r="H8" s="6" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
       <c r="I8" s="6" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
       <c r="J8" s="6"/>
       <c r="K8" s="6" t="s">
         <v>52</v>
       </c>
       <c r="L8" s="6" t="s">
-        <v>822</v>
+        <v>820</v>
       </c>
       <c r="M8" s="6" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
       <c r="N8" s="6"/>
       <c r="O8" s="6"/>
@@ -16910,29 +16904,29 @@
         <v>13</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
       <c r="F9" s="6" t="s">
         <v>29</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>802</v>
+        <v>800</v>
       </c>
       <c r="H9" s="6" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
       <c r="I9" s="6" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
       <c r="J9" s="6"/>
       <c r="K9" s="6" t="s">
         <v>25</v>
       </c>
       <c r="L9" s="6" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
       <c r="M9" s="6" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
       <c r="N9" s="6"/>
       <c r="O9" s="6"/>
@@ -16952,29 +16946,29 @@
         <v>9</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>829</v>
+        <v>827</v>
       </c>
       <c r="F10" s="6" t="s">
         <v>29</v>
       </c>
       <c r="G10" s="6" t="s">
-        <v>802</v>
+        <v>800</v>
       </c>
       <c r="H10" s="6" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="I10" s="6" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
       <c r="J10" s="6"/>
       <c r="K10" s="6" t="s">
         <v>25</v>
       </c>
       <c r="L10" s="6" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
       <c r="M10" s="6" t="s">
-        <v>832</v>
+        <v>830</v>
       </c>
       <c r="N10" s="6"/>
       <c r="O10" s="6"/>
@@ -16990,19 +16984,19 @@
         <v>19</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="F11" s="6" t="s">
         <v>29</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>802</v>
+        <v>800</v>
       </c>
       <c r="H11" s="6" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="I11" s="6" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
       <c r="J11" s="6"/>
       <c r="K11" s="6" t="s">
@@ -17026,19 +17020,19 @@
         <v>30</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="F12" s="6" t="s">
         <v>29</v>
       </c>
       <c r="G12" s="6" t="s">
-        <v>802</v>
+        <v>800</v>
       </c>
       <c r="H12" s="6" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
       <c r="I12" s="6" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="J12" s="6"/>
       <c r="K12" s="6" t="s">
@@ -18248,7 +18242,7 @@
         <v>0</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>2</v>
@@ -18326,29 +18320,29 @@
         <v>227</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="F4" s="6" t="s">
         <v>21</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="H4" s="6" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="I4" s="6" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
       <c r="J4" s="6"/>
       <c r="K4" s="6" t="s">
         <v>25</v>
       </c>
       <c r="L4" s="6" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
       <c r="M4" s="6" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
       <c r="N4" s="6"/>
       <c r="O4" s="6"/>
@@ -18368,29 +18362,29 @@
         <v>248</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
       <c r="F5" s="6" t="s">
         <v>21</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="H5" s="6" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
       <c r="I5" s="6" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
       <c r="J5" s="6"/>
       <c r="K5" s="6" t="s">
         <v>25</v>
       </c>
       <c r="L5" s="6" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
       <c r="M5" s="6" t="s">
-        <v>845</v>
+        <v>843</v>
       </c>
       <c r="N5" s="6"/>
       <c r="O5" s="6"/>
@@ -18410,16 +18404,16 @@
         <v>219</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>846</v>
+        <v>844</v>
       </c>
       <c r="F6" s="6" t="s">
         <v>21</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="H6" s="6" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="I6" s="6" t="s">
         <v>278</v>
@@ -18429,10 +18423,10 @@
         <v>25</v>
       </c>
       <c r="L6" s="6" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
       <c r="M6" s="6" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
       <c r="N6" s="6"/>
       <c r="O6" s="6"/>
@@ -18452,16 +18446,16 @@
         <v>220</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
       <c r="F7" s="6" t="s">
         <v>21</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="H7" s="6" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
       <c r="I7" s="6" t="s">
         <v>278</v>
@@ -18471,10 +18465,10 @@
         <v>25</v>
       </c>
       <c r="L7" s="6" t="s">
-        <v>851</v>
+        <v>849</v>
       </c>
       <c r="M7" s="6" t="s">
-        <v>852</v>
+        <v>850</v>
       </c>
       <c r="N7" s="6"/>
       <c r="O7" s="6"/>
@@ -18494,16 +18488,16 @@
         <v>233</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>853</v>
+        <v>851</v>
       </c>
       <c r="F8" s="6" t="s">
         <v>21</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="H8" s="6" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="I8" s="6"/>
       <c r="J8" s="6"/>
@@ -18511,10 +18505,10 @@
         <v>25</v>
       </c>
       <c r="L8" s="6" t="s">
-        <v>854</v>
+        <v>852</v>
       </c>
       <c r="M8" s="6" t="s">
-        <v>855</v>
+        <v>853</v>
       </c>
       <c r="N8" s="6"/>
       <c r="O8" s="6"/>
@@ -18534,29 +18528,29 @@
         <v>244</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>856</v>
+        <v>854</v>
       </c>
       <c r="F9" s="6" t="s">
         <v>21</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="H9" s="6" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="I9" s="6" t="s">
-        <v>857</v>
+        <v>855</v>
       </c>
       <c r="J9" s="6"/>
       <c r="K9" s="6" t="s">
         <v>25</v>
       </c>
       <c r="L9" s="6" t="s">
-        <v>858</v>
+        <v>856</v>
       </c>
       <c r="M9" s="6" t="s">
-        <v>859</v>
+        <v>857</v>
       </c>
       <c r="N9" s="6"/>
       <c r="O9" s="6"/>
@@ -19768,8 +19762,8 @@
   </sheetPr>
   <dimension ref="A1:P1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A18" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E38" activeCellId="0" sqref="E38"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -19794,7 +19788,7 @@
         <v>0</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>2</v>
@@ -19872,7 +19866,7 @@
         <v>242</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="F4" s="6" t="s">
         <v>29</v>
@@ -19881,7 +19875,7 @@
         <v>29</v>
       </c>
       <c r="H4" s="6" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="I4" s="6"/>
       <c r="J4" s="6"/>
@@ -19889,7 +19883,7 @@
         <v>52</v>
       </c>
       <c r="L4" s="6" t="s">
-        <v>862</v>
+        <v>860</v>
       </c>
       <c r="M4" s="6"/>
       <c r="N4" s="6"/>
@@ -19910,7 +19904,7 @@
         <v>222</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
       <c r="F5" s="6" t="s">
         <v>29</v>
@@ -19919,20 +19913,20 @@
         <v>29</v>
       </c>
       <c r="H5" s="6" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="I5" s="6" t="s">
-        <v>864</v>
+        <v>862</v>
       </c>
       <c r="J5" s="6"/>
       <c r="K5" s="6" t="s">
         <v>25</v>
       </c>
       <c r="L5" s="6" t="s">
-        <v>865</v>
+        <v>863</v>
       </c>
       <c r="M5" s="6" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="N5" s="6"/>
       <c r="O5" s="6"/>
@@ -19952,7 +19946,7 @@
         <v>211</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="F6" s="6" t="s">
         <v>29</v>
@@ -19961,20 +19955,20 @@
         <v>29</v>
       </c>
       <c r="H6" s="6" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
       <c r="I6" s="6" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="J6" s="6"/>
       <c r="K6" s="6" t="s">
         <v>25</v>
       </c>
       <c r="L6" s="6" t="s">
-        <v>868</v>
+        <v>866</v>
       </c>
       <c r="M6" s="6" t="s">
-        <v>869</v>
+        <v>867</v>
       </c>
       <c r="N6" s="6"/>
       <c r="O6" s="6"/>
@@ -19994,7 +19988,7 @@
         <v>223</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
       <c r="F7" s="6" t="s">
         <v>29</v>
@@ -20003,20 +19997,20 @@
         <v>29</v>
       </c>
       <c r="H7" s="6" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="I7" s="6" t="s">
-        <v>871</v>
+        <v>869</v>
       </c>
       <c r="J7" s="6"/>
       <c r="K7" s="6" t="s">
         <v>25</v>
       </c>
       <c r="L7" s="6" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
       <c r="M7" s="6" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
       <c r="N7" s="6"/>
       <c r="O7" s="6"/>
@@ -20036,7 +20030,7 @@
         <v>207</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>874</v>
+        <v>872</v>
       </c>
       <c r="F8" s="6" t="s">
         <v>29</v>
@@ -20045,20 +20039,20 @@
         <v>29</v>
       </c>
       <c r="H8" s="6" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="I8" s="6" t="s">
-        <v>875</v>
+        <v>873</v>
       </c>
       <c r="J8" s="6"/>
       <c r="K8" s="6" t="s">
         <v>52</v>
       </c>
       <c r="L8" s="6" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="M8" s="6" t="s">
-        <v>877</v>
+        <v>875</v>
       </c>
       <c r="N8" s="6"/>
       <c r="O8" s="6"/>
@@ -20078,7 +20072,7 @@
         <v>213</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>878</v>
+        <v>876</v>
       </c>
       <c r="F9" s="6" t="s">
         <v>29</v>
@@ -20087,20 +20081,20 @@
         <v>29</v>
       </c>
       <c r="H9" s="6" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="I9" s="6" t="s">
-        <v>879</v>
+        <v>877</v>
       </c>
       <c r="J9" s="6"/>
       <c r="K9" s="6" t="s">
         <v>25</v>
       </c>
       <c r="L9" s="6" t="s">
-        <v>880</v>
+        <v>878</v>
       </c>
       <c r="M9" s="6" t="s">
-        <v>881</v>
+        <v>879</v>
       </c>
       <c r="N9" s="6"/>
       <c r="O9" s="6"/>
@@ -20120,7 +20114,7 @@
         <v>214</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>882</v>
+        <v>880</v>
       </c>
       <c r="F10" s="6" t="s">
         <v>29</v>
@@ -20129,7 +20123,7 @@
         <v>29</v>
       </c>
       <c r="H10" s="6" t="s">
-        <v>883</v>
+        <v>881</v>
       </c>
       <c r="I10" s="6" t="s">
         <v>254</v>
@@ -20139,10 +20133,10 @@
         <v>25</v>
       </c>
       <c r="L10" s="6" t="s">
-        <v>884</v>
+        <v>882</v>
       </c>
       <c r="M10" s="6" t="s">
-        <v>885</v>
+        <v>883</v>
       </c>
       <c r="N10" s="6"/>
       <c r="O10" s="6"/>
@@ -20162,7 +20156,7 @@
         <v>208</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>886</v>
+        <v>884</v>
       </c>
       <c r="F11" s="6" t="s">
         <v>29</v>
@@ -20171,7 +20165,7 @@
         <v>29</v>
       </c>
       <c r="H11" s="6" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="I11" s="6" t="s">
         <v>95</v>
@@ -20181,10 +20175,10 @@
         <v>25</v>
       </c>
       <c r="L11" s="6" t="s">
-        <v>887</v>
+        <v>885</v>
       </c>
       <c r="M11" s="6" t="s">
-        <v>888</v>
+        <v>886</v>
       </c>
       <c r="N11" s="6"/>
       <c r="O11" s="6"/>
@@ -20204,7 +20198,7 @@
         <v>247</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="F12" s="6" t="s">
         <v>29</v>
@@ -20213,7 +20207,7 @@
         <v>29</v>
       </c>
       <c r="H12" s="6" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="I12" s="6" t="s">
         <v>37</v>
@@ -20223,10 +20217,10 @@
         <v>25</v>
       </c>
       <c r="L12" s="6" t="s">
-        <v>890</v>
+        <v>888</v>
       </c>
       <c r="M12" s="6" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
       <c r="N12" s="6"/>
       <c r="O12" s="6"/>
@@ -20246,7 +20240,7 @@
         <v>201</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="F13" s="6" t="s">
         <v>29</v>
@@ -20255,20 +20249,20 @@
         <v>29</v>
       </c>
       <c r="H13" s="6" t="s">
-        <v>893</v>
+        <v>891</v>
       </c>
       <c r="I13" s="6" t="s">
-        <v>894</v>
+        <v>892</v>
       </c>
       <c r="J13" s="6"/>
       <c r="K13" s="6" t="s">
         <v>25</v>
       </c>
       <c r="L13" s="6" t="s">
-        <v>895</v>
+        <v>893</v>
       </c>
       <c r="M13" s="6" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
       <c r="N13" s="6"/>
       <c r="O13" s="6"/>
@@ -20288,7 +20282,7 @@
         <v>250</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>897</v>
+        <v>895</v>
       </c>
       <c r="F14" s="6" t="s">
         <v>29</v>
@@ -20297,7 +20291,7 @@
         <v>29</v>
       </c>
       <c r="H14" s="6" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
       <c r="I14" s="6"/>
       <c r="J14" s="6"/>
@@ -20305,10 +20299,10 @@
         <v>52</v>
       </c>
       <c r="L14" s="6" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
       <c r="M14" s="6" t="s">
-        <v>899</v>
+        <v>897</v>
       </c>
       <c r="N14" s="6"/>
       <c r="O14" s="6"/>
@@ -20328,7 +20322,7 @@
         <v>231</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="F15" s="6" t="s">
         <v>29</v>
@@ -20337,7 +20331,7 @@
         <v>29</v>
       </c>
       <c r="H15" s="6" t="s">
-        <v>901</v>
+        <v>899</v>
       </c>
       <c r="I15" s="6"/>
       <c r="J15" s="6"/>
@@ -20345,10 +20339,10 @@
         <v>25</v>
       </c>
       <c r="L15" s="6" t="s">
-        <v>902</v>
+        <v>900</v>
       </c>
       <c r="M15" s="6" t="s">
-        <v>903</v>
+        <v>901</v>
       </c>
       <c r="N15" s="6"/>
       <c r="O15" s="6"/>
@@ -20368,7 +20362,7 @@
         <v>226</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>904</v>
+        <v>902</v>
       </c>
       <c r="F16" s="6" t="s">
         <v>29</v>
@@ -20377,7 +20371,7 @@
         <v>29</v>
       </c>
       <c r="H16" s="6" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="I16" s="6" t="s">
         <v>31</v>
@@ -20387,10 +20381,10 @@
         <v>25</v>
       </c>
       <c r="L16" s="6" t="s">
-        <v>905</v>
+        <v>903</v>
       </c>
       <c r="M16" s="6" t="s">
-        <v>906</v>
+        <v>904</v>
       </c>
       <c r="N16" s="6"/>
       <c r="O16" s="6"/>
@@ -20410,7 +20404,7 @@
         <v>245</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>907</v>
+        <v>905</v>
       </c>
       <c r="F17" s="6" t="s">
         <v>29</v>
@@ -20419,20 +20413,20 @@
         <v>29</v>
       </c>
       <c r="H17" s="6" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="I17" s="6" t="s">
-        <v>908</v>
+        <v>906</v>
       </c>
       <c r="J17" s="6"/>
       <c r="K17" s="6" t="s">
         <v>52</v>
       </c>
       <c r="L17" s="6" t="s">
-        <v>909</v>
+        <v>907</v>
       </c>
       <c r="M17" s="6" t="s">
-        <v>910</v>
+        <v>908</v>
       </c>
       <c r="N17" s="6"/>
       <c r="O17" s="6"/>
@@ -20452,7 +20446,7 @@
         <v>239</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>911</v>
+        <v>909</v>
       </c>
       <c r="F18" s="6" t="s">
         <v>29</v>
@@ -20461,20 +20455,20 @@
         <v>29</v>
       </c>
       <c r="H18" s="6" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="I18" s="6" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="J18" s="6"/>
       <c r="K18" s="6" t="s">
         <v>25</v>
       </c>
       <c r="L18" s="6" t="s">
-        <v>912</v>
+        <v>910</v>
       </c>
       <c r="M18" s="6" t="s">
-        <v>913</v>
+        <v>911</v>
       </c>
       <c r="N18" s="6"/>
       <c r="O18" s="6"/>
@@ -20494,7 +20488,7 @@
         <v>241</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>914</v>
+        <v>912</v>
       </c>
       <c r="F19" s="6" t="s">
         <v>29</v>
@@ -20503,7 +20497,7 @@
         <v>29</v>
       </c>
       <c r="H19" s="6" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="I19" s="6"/>
       <c r="J19" s="6"/>
@@ -20511,10 +20505,10 @@
         <v>25</v>
       </c>
       <c r="L19" s="6" t="s">
-        <v>915</v>
+        <v>913</v>
       </c>
       <c r="M19" s="6" t="s">
-        <v>916</v>
+        <v>914</v>
       </c>
       <c r="N19" s="6"/>
       <c r="O19" s="6"/>
@@ -20534,7 +20528,7 @@
         <v>224</v>
       </c>
       <c r="E20" s="6" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
       <c r="F20" s="6" t="s">
         <v>29</v>
@@ -20543,7 +20537,7 @@
         <v>29</v>
       </c>
       <c r="H20" s="6" t="s">
-        <v>901</v>
+        <v>899</v>
       </c>
       <c r="I20" s="6" t="s">
         <v>37</v>
@@ -20553,10 +20547,10 @@
         <v>25</v>
       </c>
       <c r="L20" s="6" t="s">
-        <v>918</v>
+        <v>916</v>
       </c>
       <c r="M20" s="6" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
       <c r="N20" s="6"/>
       <c r="O20" s="6"/>
@@ -20576,7 +20570,7 @@
         <v>209</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>920</v>
+        <v>918</v>
       </c>
       <c r="F21" s="6" t="s">
         <v>29</v>
@@ -20585,20 +20579,20 @@
         <v>29</v>
       </c>
       <c r="H21" s="6" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="I21" s="6" t="s">
-        <v>921</v>
+        <v>919</v>
       </c>
       <c r="J21" s="6"/>
       <c r="K21" s="6" t="s">
         <v>25</v>
       </c>
       <c r="L21" s="6" t="s">
-        <v>922</v>
+        <v>920</v>
       </c>
       <c r="M21" s="6" t="s">
-        <v>923</v>
+        <v>921</v>
       </c>
       <c r="N21" s="6"/>
       <c r="O21" s="6"/>
@@ -20618,7 +20612,7 @@
         <v>243</v>
       </c>
       <c r="E22" s="6" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="F22" s="6" t="s">
         <v>29</v>
@@ -20627,20 +20621,20 @@
         <v>29</v>
       </c>
       <c r="H22" s="6" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="I22" s="6" t="s">
-        <v>925</v>
+        <v>923</v>
       </c>
       <c r="J22" s="6"/>
       <c r="K22" s="6" t="s">
         <v>25</v>
       </c>
       <c r="L22" s="6" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="M22" s="6" t="s">
-        <v>927</v>
+        <v>925</v>
       </c>
       <c r="N22" s="6"/>
       <c r="O22" s="6"/>
@@ -20660,7 +20654,7 @@
         <v>225</v>
       </c>
       <c r="E23" s="6" t="s">
-        <v>928</v>
+        <v>926</v>
       </c>
       <c r="F23" s="6" t="s">
         <v>29</v>
@@ -20669,20 +20663,20 @@
         <v>29</v>
       </c>
       <c r="H23" s="6" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="I23" s="6" t="s">
-        <v>929</v>
+        <v>927</v>
       </c>
       <c r="J23" s="6"/>
       <c r="K23" s="6" t="s">
         <v>25</v>
       </c>
       <c r="L23" s="6" t="s">
-        <v>930</v>
+        <v>928</v>
       </c>
       <c r="M23" s="6" t="s">
-        <v>931</v>
+        <v>929</v>
       </c>
       <c r="N23" s="6"/>
       <c r="O23" s="6"/>
@@ -20702,7 +20696,7 @@
         <v>251</v>
       </c>
       <c r="E24" s="6" t="s">
-        <v>932</v>
+        <v>930</v>
       </c>
       <c r="F24" s="6" t="s">
         <v>29</v>
@@ -20711,20 +20705,20 @@
         <v>29</v>
       </c>
       <c r="H24" s="6" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="I24" s="6" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
       <c r="J24" s="6"/>
       <c r="K24" s="6" t="s">
         <v>25</v>
       </c>
       <c r="L24" s="6" t="s">
-        <v>934</v>
+        <v>932</v>
       </c>
       <c r="M24" s="6" t="s">
-        <v>935</v>
+        <v>933</v>
       </c>
       <c r="N24" s="6"/>
       <c r="O24" s="6"/>
@@ -20744,7 +20738,7 @@
         <v>218</v>
       </c>
       <c r="E25" s="6" t="s">
-        <v>936</v>
+        <v>934</v>
       </c>
       <c r="F25" s="6" t="s">
         <v>29</v>
@@ -20753,20 +20747,20 @@
         <v>29</v>
       </c>
       <c r="H25" s="6" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="I25" s="6" t="s">
-        <v>921</v>
+        <v>919</v>
       </c>
       <c r="J25" s="6"/>
       <c r="K25" s="6" t="s">
         <v>25</v>
       </c>
       <c r="L25" s="6" t="s">
-        <v>937</v>
+        <v>935</v>
       </c>
       <c r="M25" s="6" t="s">
-        <v>938</v>
+        <v>936</v>
       </c>
       <c r="N25" s="6"/>
       <c r="O25" s="6"/>
@@ -20786,7 +20780,7 @@
         <v>203</v>
       </c>
       <c r="E26" s="6" t="s">
-        <v>939</v>
+        <v>937</v>
       </c>
       <c r="F26" s="6" t="s">
         <v>29</v>
@@ -20795,20 +20789,20 @@
         <v>29</v>
       </c>
       <c r="H26" s="6" t="s">
-        <v>940</v>
+        <v>938</v>
       </c>
       <c r="I26" s="6" t="s">
-        <v>941</v>
+        <v>939</v>
       </c>
       <c r="J26" s="6"/>
       <c r="K26" s="6" t="s">
         <v>25</v>
       </c>
       <c r="L26" s="6" t="s">
-        <v>942</v>
+        <v>940</v>
       </c>
       <c r="M26" s="6" t="s">
-        <v>943</v>
+        <v>941</v>
       </c>
       <c r="N26" s="6"/>
       <c r="O26" s="6"/>
@@ -20828,7 +20822,7 @@
         <v>229</v>
       </c>
       <c r="E27" s="6" t="s">
-        <v>944</v>
+        <v>942</v>
       </c>
       <c r="F27" s="6" t="s">
         <v>29</v>
@@ -20837,20 +20831,20 @@
         <v>29</v>
       </c>
       <c r="H27" s="6" t="s">
-        <v>945</v>
+        <v>943</v>
       </c>
       <c r="I27" s="6" t="s">
-        <v>946</v>
+        <v>944</v>
       </c>
       <c r="J27" s="6"/>
       <c r="K27" s="6" t="s">
         <v>25</v>
       </c>
       <c r="L27" s="6" t="s">
-        <v>947</v>
+        <v>945</v>
       </c>
       <c r="M27" s="6" t="s">
-        <v>948</v>
+        <v>946</v>
       </c>
       <c r="N27" s="6"/>
       <c r="O27" s="6"/>
@@ -20870,7 +20864,7 @@
         <v>249</v>
       </c>
       <c r="E28" s="6" t="s">
-        <v>949</v>
+        <v>947</v>
       </c>
       <c r="F28" s="6" t="s">
         <v>29</v>
@@ -20879,20 +20873,20 @@
         <v>29</v>
       </c>
       <c r="H28" s="6" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="I28" s="6" t="s">
-        <v>950</v>
+        <v>948</v>
       </c>
       <c r="J28" s="6"/>
       <c r="K28" s="6" t="s">
         <v>25</v>
       </c>
       <c r="L28" s="6" t="s">
-        <v>951</v>
+        <v>949</v>
       </c>
       <c r="M28" s="6" t="s">
-        <v>952</v>
+        <v>950</v>
       </c>
       <c r="N28" s="6"/>
       <c r="O28" s="6"/>
@@ -20912,7 +20906,7 @@
         <v>228</v>
       </c>
       <c r="E29" s="6" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="F29" s="6" t="s">
         <v>29</v>
@@ -20921,20 +20915,20 @@
         <v>29</v>
       </c>
       <c r="H29" s="6" t="s">
-        <v>954</v>
+        <v>952</v>
       </c>
       <c r="I29" s="6" t="s">
-        <v>955</v>
+        <v>953</v>
       </c>
       <c r="J29" s="6"/>
       <c r="K29" s="6" t="s">
         <v>25</v>
       </c>
       <c r="L29" s="6" t="s">
-        <v>956</v>
+        <v>954</v>
       </c>
       <c r="M29" s="6" t="s">
-        <v>957</v>
+        <v>955</v>
       </c>
       <c r="N29" s="6"/>
       <c r="O29" s="6"/>
@@ -20954,7 +20948,7 @@
         <v>216</v>
       </c>
       <c r="E30" s="6" t="s">
-        <v>958</v>
+        <v>956</v>
       </c>
       <c r="F30" s="6" t="s">
         <v>29</v>
@@ -20963,20 +20957,20 @@
         <v>29</v>
       </c>
       <c r="H30" s="6" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
       <c r="I30" s="6" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
       <c r="J30" s="6"/>
       <c r="K30" s="6" t="s">
         <v>25</v>
       </c>
       <c r="L30" s="6" t="s">
-        <v>959</v>
+        <v>957</v>
       </c>
       <c r="M30" s="6" t="s">
-        <v>960</v>
+        <v>958</v>
       </c>
       <c r="N30" s="6"/>
       <c r="O30" s="6"/>
@@ -20996,7 +20990,7 @@
         <v>230</v>
       </c>
       <c r="E31" s="6" t="s">
-        <v>961</v>
+        <v>959</v>
       </c>
       <c r="F31" s="6" t="s">
         <v>29</v>
@@ -21005,20 +20999,20 @@
         <v>29</v>
       </c>
       <c r="H31" s="6" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
       <c r="I31" s="6" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
       <c r="J31" s="6"/>
       <c r="K31" s="6" t="s">
         <v>25</v>
       </c>
       <c r="L31" s="6" t="s">
-        <v>963</v>
+        <v>961</v>
       </c>
       <c r="M31" s="6" t="s">
-        <v>964</v>
+        <v>962</v>
       </c>
       <c r="N31" s="6"/>
       <c r="O31" s="6"/>
@@ -21038,7 +21032,7 @@
         <v>212</v>
       </c>
       <c r="E32" s="6" t="s">
-        <v>965</v>
+        <v>963</v>
       </c>
       <c r="F32" s="6" t="s">
         <v>29</v>
@@ -21047,7 +21041,7 @@
         <v>29</v>
       </c>
       <c r="H32" s="6" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
       <c r="I32" s="6" t="s">
         <v>190</v>
@@ -21057,10 +21051,10 @@
         <v>25</v>
       </c>
       <c r="L32" s="6" t="s">
-        <v>966</v>
+        <v>964</v>
       </c>
       <c r="M32" s="6" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
       <c r="N32" s="6"/>
       <c r="O32" s="6"/>
@@ -21074,13 +21068,13 @@
         <v>157</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>968</v>
+        <v>966</v>
       </c>
       <c r="D33" s="6" t="n">
         <v>255</v>
       </c>
       <c r="E33" s="6" t="s">
-        <v>969</v>
+        <v>967</v>
       </c>
       <c r="F33" s="6" t="s">
         <v>29</v>
@@ -21089,7 +21083,7 @@
         <v>29</v>
       </c>
       <c r="H33" s="6" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
       <c r="I33" s="6"/>
       <c r="J33" s="6"/>
@@ -21097,10 +21091,10 @@
         <v>25</v>
       </c>
       <c r="L33" s="6" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
       <c r="M33" s="6" t="s">
-        <v>971</v>
+        <v>969</v>
       </c>
       <c r="N33" s="6"/>
       <c r="O33" s="6"/>
@@ -21114,13 +21108,13 @@
         <v>272</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>972</v>
+        <v>970</v>
       </c>
       <c r="D34" s="6" t="n">
         <v>215</v>
       </c>
       <c r="E34" s="6" t="s">
-        <v>973</v>
+        <v>971</v>
       </c>
       <c r="F34" s="6" t="s">
         <v>29</v>
@@ -21129,20 +21123,20 @@
         <v>29</v>
       </c>
       <c r="H34" s="6" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="I34" s="6" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
       <c r="J34" s="6"/>
       <c r="K34" s="6" t="s">
         <v>25</v>
       </c>
       <c r="L34" s="6" t="s">
-        <v>974</v>
+        <v>972</v>
       </c>
       <c r="M34" s="6" t="s">
-        <v>975</v>
+        <v>973</v>
       </c>
       <c r="N34" s="6"/>
       <c r="O34" s="6"/>
@@ -21156,13 +21150,13 @@
         <v>276</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>976</v>
+        <v>974</v>
       </c>
       <c r="D35" s="6" t="n">
         <v>246</v>
       </c>
       <c r="E35" s="6" t="s">
-        <v>977</v>
+        <v>975</v>
       </c>
       <c r="F35" s="6" t="s">
         <v>29</v>
@@ -21171,20 +21165,20 @@
         <v>29</v>
       </c>
       <c r="H35" s="6" t="s">
-        <v>945</v>
+        <v>943</v>
       </c>
       <c r="I35" s="6" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
       <c r="J35" s="6"/>
       <c r="K35" s="6" t="s">
         <v>25</v>
       </c>
       <c r="L35" s="6" t="s">
-        <v>978</v>
+        <v>976</v>
       </c>
       <c r="M35" s="6" t="s">
-        <v>979</v>
+        <v>977</v>
       </c>
       <c r="N35" s="6"/>
       <c r="O35" s="6"/>
@@ -21198,13 +21192,13 @@
         <v>281</v>
       </c>
       <c r="C36" s="6" t="s">
-        <v>980</v>
+        <v>978</v>
       </c>
       <c r="D36" s="6" t="n">
         <v>238</v>
       </c>
       <c r="E36" s="6" t="s">
-        <v>981</v>
+        <v>979</v>
       </c>
       <c r="F36" s="6" t="s">
         <v>29</v>
@@ -21213,20 +21207,20 @@
         <v>29</v>
       </c>
       <c r="H36" s="6" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="I36" s="6" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="J36" s="6"/>
       <c r="K36" s="6" t="s">
         <v>25</v>
       </c>
       <c r="L36" s="6" t="s">
-        <v>982</v>
+        <v>980</v>
       </c>
       <c r="M36" s="6" t="s">
-        <v>983</v>
+        <v>981</v>
       </c>
       <c r="N36" s="6"/>
       <c r="O36" s="6"/>
@@ -21240,13 +21234,13 @@
         <v>285</v>
       </c>
       <c r="C37" s="6" t="s">
-        <v>984</v>
+        <v>982</v>
       </c>
       <c r="D37" s="6" t="n">
         <v>237</v>
       </c>
       <c r="E37" s="6" t="s">
-        <v>985</v>
+        <v>983</v>
       </c>
       <c r="F37" s="6" t="s">
         <v>29</v>
@@ -21255,20 +21249,20 @@
         <v>29</v>
       </c>
       <c r="H37" s="6" t="s">
-        <v>986</v>
+        <v>984</v>
       </c>
       <c r="I37" s="6" t="s">
-        <v>987</v>
+        <v>985</v>
       </c>
       <c r="J37" s="6"/>
       <c r="K37" s="6" t="s">
         <v>25</v>
       </c>
       <c r="L37" s="6" t="s">
-        <v>988</v>
+        <v>986</v>
       </c>
       <c r="M37" s="6" t="s">
-        <v>989</v>
+        <v>987</v>
       </c>
       <c r="N37" s="6"/>
       <c r="O37" s="6"/>
@@ -21284,7 +21278,7 @@
         <v>205</v>
       </c>
       <c r="E38" s="6" t="s">
-        <v>990</v>
+        <v>988</v>
       </c>
       <c r="F38" s="6" t="s">
         <v>29</v>
@@ -21293,10 +21287,10 @@
         <v>29</v>
       </c>
       <c r="H38" s="6" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="I38" s="6" t="s">
-        <v>941</v>
+        <v>939</v>
       </c>
       <c r="J38" s="6"/>
       <c r="K38" s="6" t="s">
@@ -21320,7 +21314,7 @@
         <v>206</v>
       </c>
       <c r="E39" s="6" t="s">
-        <v>991</v>
+        <v>989</v>
       </c>
       <c r="F39" s="6" t="s">
         <v>29</v>
@@ -21329,10 +21323,10 @@
         <v>29</v>
       </c>
       <c r="H39" s="6" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="I39" s="6" t="s">
-        <v>992</v>
+        <v>990</v>
       </c>
       <c r="J39" s="6"/>
       <c r="K39" s="6" t="s">
@@ -21356,7 +21350,7 @@
         <v>210</v>
       </c>
       <c r="E40" s="6" t="s">
-        <v>993</v>
+        <v>991</v>
       </c>
       <c r="F40" s="6" t="s">
         <v>29</v>
@@ -21365,10 +21359,10 @@
         <v>29</v>
       </c>
       <c r="H40" s="6" t="s">
-        <v>893</v>
+        <v>891</v>
       </c>
       <c r="I40" s="6" t="s">
-        <v>994</v>
+        <v>992</v>
       </c>
       <c r="J40" s="6"/>
       <c r="K40" s="6" t="s">
@@ -21392,7 +21386,7 @@
         <v>221</v>
       </c>
       <c r="E41" s="6" t="s">
-        <v>995</v>
+        <v>993</v>
       </c>
       <c r="F41" s="6" t="s">
         <v>29</v>
@@ -21401,10 +21395,10 @@
         <v>29</v>
       </c>
       <c r="H41" s="6" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="I41" s="6" t="s">
-        <v>921</v>
+        <v>919</v>
       </c>
       <c r="J41" s="6"/>
       <c r="K41" s="6" t="s">
@@ -21428,7 +21422,7 @@
         <v>234</v>
       </c>
       <c r="E42" s="6" t="s">
-        <v>996</v>
+        <v>994</v>
       </c>
       <c r="F42" s="6" t="s">
         <v>29</v>
@@ -21437,10 +21431,10 @@
         <v>29</v>
       </c>
       <c r="H42" s="6" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="I42" s="6" t="s">
-        <v>997</v>
+        <v>995</v>
       </c>
       <c r="J42" s="6"/>
       <c r="K42" s="6" t="s">
@@ -21464,7 +21458,7 @@
         <v>236</v>
       </c>
       <c r="E43" s="6" t="s">
-        <v>998</v>
+        <v>996</v>
       </c>
       <c r="F43" s="6" t="s">
         <v>29</v>
@@ -21473,7 +21467,7 @@
         <v>29</v>
       </c>
       <c r="H43" s="6" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="I43" s="6"/>
       <c r="J43" s="6"/>
@@ -23839,7 +23833,7 @@
         <v>174</v>
       </c>
       <c r="I40" s="6" t="s">
-        <v>300</v>
+        <v>42</v>
       </c>
       <c r="J40" s="6"/>
       <c r="K40" s="6" t="s">
@@ -23863,7 +23857,7 @@
         <v>6</v>
       </c>
       <c r="E41" s="6" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="F41" s="6" t="s">
         <v>29</v>
@@ -23875,7 +23869,7 @@
         <v>174</v>
       </c>
       <c r="I41" s="6" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="J41" s="6"/>
       <c r="K41" s="6" t="s">
@@ -23899,7 +23893,7 @@
         <v>13</v>
       </c>
       <c r="E42" s="6" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="F42" s="6" t="s">
         <v>29</v>
@@ -23935,7 +23929,7 @@
         <v>17</v>
       </c>
       <c r="E43" s="6" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="F43" s="6" t="s">
         <v>21</v>
@@ -23971,7 +23965,7 @@
         <v>18</v>
       </c>
       <c r="E44" s="6" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="F44" s="6" t="s">
         <v>29</v>
@@ -24007,7 +24001,7 @@
         <v>23</v>
       </c>
       <c r="E45" s="6" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="F45" s="6" t="s">
         <v>29</v>
@@ -24805,7 +24799,7 @@
         <v>0</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>2</v>
@@ -24878,16 +24872,16 @@
         <v>21</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="F4" s="6" t="s">
         <v>21</v>
       </c>
       <c r="G4" s="6" t="s">
+        <v>308</v>
+      </c>
+      <c r="H4" s="6" t="s">
         <v>309</v>
-      </c>
-      <c r="H4" s="6" t="s">
-        <v>310</v>
       </c>
       <c r="I4" s="6" t="s">
         <v>178</v>
@@ -24896,10 +24890,10 @@
         <v>25</v>
       </c>
       <c r="L4" s="6" t="s">
+        <v>310</v>
+      </c>
+      <c r="M4" s="6" t="s">
         <v>311</v>
-      </c>
-      <c r="M4" s="6" t="s">
-        <v>312</v>
       </c>
     </row>
     <row r="5" s="6" customFormat="true" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -24916,16 +24910,16 @@
         <v>32</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="F5" s="6" t="s">
         <v>21</v>
       </c>
       <c r="G5" s="6" t="s">
+        <v>308</v>
+      </c>
+      <c r="H5" s="6" t="s">
         <v>309</v>
-      </c>
-      <c r="H5" s="6" t="s">
-        <v>310</v>
       </c>
       <c r="I5" s="6" t="s">
         <v>204</v>
@@ -24934,10 +24928,10 @@
         <v>25</v>
       </c>
       <c r="L5" s="6" t="s">
+        <v>313</v>
+      </c>
+      <c r="M5" s="6" t="s">
         <v>314</v>
-      </c>
-      <c r="M5" s="6" t="s">
-        <v>315</v>
       </c>
     </row>
     <row r="6" s="6" customFormat="true" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -24954,16 +24948,16 @@
         <v>1</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="F6" s="6" t="s">
         <v>21</v>
       </c>
       <c r="G6" s="6" t="s">
+        <v>308</v>
+      </c>
+      <c r="H6" s="6" t="s">
         <v>309</v>
-      </c>
-      <c r="H6" s="6" t="s">
-        <v>310</v>
       </c>
       <c r="I6" s="6" t="s">
         <v>186</v>
@@ -24972,10 +24966,10 @@
         <v>25</v>
       </c>
       <c r="L6" s="6" t="s">
+        <v>316</v>
+      </c>
+      <c r="M6" s="6" t="s">
         <v>317</v>
-      </c>
-      <c r="M6" s="6" t="s">
-        <v>318</v>
       </c>
     </row>
     <row r="7" s="6" customFormat="true" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -24992,16 +24986,16 @@
         <v>30</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="F7" s="6" t="s">
         <v>21</v>
       </c>
       <c r="G7" s="6" t="s">
+        <v>308</v>
+      </c>
+      <c r="H7" s="6" t="s">
         <v>309</v>
-      </c>
-      <c r="H7" s="6" t="s">
-        <v>310</v>
       </c>
       <c r="I7" s="6" t="s">
         <v>37</v>
@@ -25010,10 +25004,10 @@
         <v>25</v>
       </c>
       <c r="L7" s="6" t="s">
+        <v>319</v>
+      </c>
+      <c r="M7" s="6" t="s">
         <v>320</v>
-      </c>
-      <c r="M7" s="6" t="s">
-        <v>321</v>
       </c>
     </row>
     <row r="8" s="6" customFormat="true" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -25030,16 +25024,16 @@
         <v>2</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="F8" s="6" t="s">
         <v>21</v>
       </c>
       <c r="G8" s="6" t="s">
+        <v>308</v>
+      </c>
+      <c r="H8" s="6" t="s">
         <v>309</v>
-      </c>
-      <c r="H8" s="6" t="s">
-        <v>310</v>
       </c>
       <c r="I8" s="6" t="s">
         <v>186</v>
@@ -25048,10 +25042,10 @@
         <v>25</v>
       </c>
       <c r="L8" s="6" t="s">
+        <v>319</v>
+      </c>
+      <c r="M8" s="6" t="s">
         <v>320</v>
-      </c>
-      <c r="M8" s="6" t="s">
-        <v>321</v>
       </c>
     </row>
     <row r="9" s="6" customFormat="true" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -25068,28 +25062,28 @@
         <v>5</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="F9" s="6" t="s">
         <v>21</v>
       </c>
       <c r="G9" s="6" t="s">
+        <v>308</v>
+      </c>
+      <c r="H9" s="6" t="s">
         <v>309</v>
       </c>
-      <c r="H9" s="6" t="s">
-        <v>310</v>
-      </c>
       <c r="I9" s="6" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="K9" s="6" t="s">
         <v>25</v>
       </c>
       <c r="L9" s="6" t="s">
+        <v>324</v>
+      </c>
+      <c r="M9" s="6" t="s">
         <v>325</v>
-      </c>
-      <c r="M9" s="6" t="s">
-        <v>326</v>
       </c>
     </row>
     <row r="10" s="6" customFormat="true" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -25106,16 +25100,16 @@
         <v>4</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="F10" s="6" t="s">
         <v>21</v>
       </c>
       <c r="G10" s="6" t="s">
+        <v>308</v>
+      </c>
+      <c r="H10" s="6" t="s">
         <v>309</v>
-      </c>
-      <c r="H10" s="6" t="s">
-        <v>310</v>
       </c>
       <c r="I10" s="6" t="s">
         <v>37</v>
@@ -25124,10 +25118,10 @@
         <v>25</v>
       </c>
       <c r="L10" s="6" t="s">
+        <v>327</v>
+      </c>
+      <c r="M10" s="6" t="s">
         <v>328</v>
-      </c>
-      <c r="M10" s="6" t="s">
-        <v>329</v>
       </c>
     </row>
     <row r="11" s="6" customFormat="true" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -25144,28 +25138,28 @@
         <v>8</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="F11" s="6" t="s">
         <v>21</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="H11" s="6" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="I11" s="6" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="K11" s="6" t="s">
         <v>25</v>
       </c>
       <c r="L11" s="6" t="s">
+        <v>331</v>
+      </c>
+      <c r="M11" s="6" t="s">
         <v>332</v>
-      </c>
-      <c r="M11" s="6" t="s">
-        <v>333</v>
       </c>
     </row>
     <row r="12" s="6" customFormat="true" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -25182,25 +25176,25 @@
         <v>34</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="F12" s="6" t="s">
         <v>21</v>
       </c>
       <c r="G12" s="6" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="H12" s="6" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="K12" s="6" t="s">
         <v>25</v>
       </c>
       <c r="L12" s="6" t="s">
+        <v>334</v>
+      </c>
+      <c r="M12" s="6" t="s">
         <v>335</v>
-      </c>
-      <c r="M12" s="6" t="s">
-        <v>336</v>
       </c>
     </row>
     <row r="13" s="6" customFormat="true" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -25974,7 +25968,7 @@
         <v>0</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>2</v>
@@ -26047,16 +26041,16 @@
         <v>521</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="F4" s="6" t="s">
         <v>21</v>
       </c>
       <c r="G4" s="6" t="s">
+        <v>338</v>
+      </c>
+      <c r="H4" s="6" t="s">
         <v>339</v>
-      </c>
-      <c r="H4" s="6" t="s">
-        <v>340</v>
       </c>
       <c r="I4" s="6"/>
       <c r="J4" s="6"/>
@@ -26064,7 +26058,7 @@
         <v>25</v>
       </c>
       <c r="L4" s="6" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="M4" s="6" t="s">
         <v>293</v>
@@ -26087,29 +26081,29 @@
         <v>505</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="F5" s="6" t="s">
         <v>21</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="H5" s="6" t="s">
+        <v>342</v>
+      </c>
+      <c r="I5" s="6" t="s">
         <v>343</v>
-      </c>
-      <c r="I5" s="6" t="s">
-        <v>344</v>
       </c>
       <c r="J5" s="6"/>
       <c r="K5" s="6" t="s">
         <v>25</v>
       </c>
       <c r="L5" s="6" t="s">
+        <v>344</v>
+      </c>
+      <c r="M5" s="6" t="s">
         <v>345</v>
-      </c>
-      <c r="M5" s="6" t="s">
-        <v>346</v>
       </c>
       <c r="N5" s="6"/>
       <c r="O5" s="6"/>
@@ -26129,16 +26123,16 @@
         <v>510</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="F6" s="6" t="s">
         <v>21</v>
       </c>
       <c r="G6" s="6" t="s">
+        <v>338</v>
+      </c>
+      <c r="H6" s="6" t="s">
         <v>339</v>
-      </c>
-      <c r="H6" s="6" t="s">
-        <v>340</v>
       </c>
       <c r="I6" s="6" t="s">
         <v>190</v>
@@ -26148,10 +26142,10 @@
         <v>25</v>
       </c>
       <c r="L6" s="6" t="s">
+        <v>347</v>
+      </c>
+      <c r="M6" s="6" t="s">
         <v>348</v>
-      </c>
-      <c r="M6" s="6" t="s">
-        <v>349</v>
       </c>
       <c r="N6" s="6"/>
       <c r="O6" s="6"/>
@@ -26171,29 +26165,29 @@
         <v>502</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="F7" s="6" t="s">
         <v>21</v>
       </c>
       <c r="G7" s="6" t="s">
+        <v>338</v>
+      </c>
+      <c r="H7" s="6" t="s">
         <v>339</v>
       </c>
-      <c r="H7" s="6" t="s">
-        <v>340</v>
-      </c>
       <c r="I7" s="6" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="J7" s="6"/>
       <c r="K7" s="6" t="s">
         <v>25</v>
       </c>
       <c r="L7" s="6" t="s">
+        <v>350</v>
+      </c>
+      <c r="M7" s="6" t="s">
         <v>351</v>
-      </c>
-      <c r="M7" s="6" t="s">
-        <v>352</v>
       </c>
       <c r="N7" s="6"/>
       <c r="O7" s="6"/>
@@ -26213,29 +26207,29 @@
         <v>517</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="F8" s="6" t="s">
         <v>21</v>
       </c>
       <c r="G8" s="6" t="s">
+        <v>338</v>
+      </c>
+      <c r="H8" s="6" t="s">
         <v>339</v>
       </c>
-      <c r="H8" s="6" t="s">
-        <v>340</v>
-      </c>
       <c r="I8" s="6" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="J8" s="6"/>
       <c r="K8" s="6" t="s">
         <v>25</v>
       </c>
       <c r="L8" s="6" t="s">
+        <v>354</v>
+      </c>
+      <c r="M8" s="6" t="s">
         <v>355</v>
-      </c>
-      <c r="M8" s="6" t="s">
-        <v>356</v>
       </c>
       <c r="N8" s="6"/>
       <c r="O8" s="6"/>
@@ -27466,7 +27460,7 @@
   <dimension ref="A1:P100"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E15" activeCellId="0" sqref="E15"/>
+      <selection pane="topLeft" activeCell="I4" activeCellId="0" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -27494,7 +27488,7 @@
         <v>0</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>2</v>
@@ -27567,26 +27561,26 @@
         <v>6</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="F4" s="6" t="s">
         <v>29</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="H4" s="6" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="I4" s="6" t="s">
-        <v>300</v>
+        <v>42</v>
       </c>
       <c r="J4" s="6"/>
       <c r="K4" s="6" t="s">
         <v>25</v>
       </c>
       <c r="L4" s="6" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="M4" s="6"/>
       <c r="N4" s="6"/>
@@ -27607,29 +27601,29 @@
         <v>9</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="F5" s="6" t="s">
         <v>29</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="H5" s="6" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="I5" s="6" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="J5" s="6"/>
       <c r="K5" s="6" t="s">
         <v>25</v>
       </c>
       <c r="L5" s="6" t="s">
+        <v>362</v>
+      </c>
+      <c r="M5" s="6" t="s">
         <v>363</v>
-      </c>
-      <c r="M5" s="6" t="s">
-        <v>364</v>
       </c>
       <c r="N5" s="6"/>
       <c r="O5" s="6"/>
@@ -27649,16 +27643,16 @@
         <v>7</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="F6" s="6" t="s">
         <v>29</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="H6" s="6" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="I6" s="6" t="s">
         <v>190</v>
@@ -27668,10 +27662,10 @@
         <v>25</v>
       </c>
       <c r="L6" s="6" t="s">
+        <v>365</v>
+      </c>
+      <c r="M6" s="6" t="s">
         <v>366</v>
-      </c>
-      <c r="M6" s="6" t="s">
-        <v>367</v>
       </c>
       <c r="N6" s="6"/>
       <c r="O6" s="6"/>
@@ -27691,16 +27685,16 @@
         <v>35</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="F7" s="6" t="s">
         <v>29</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="H7" s="6" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="I7" s="6" t="s">
         <v>204</v>
@@ -27710,10 +27704,10 @@
         <v>25</v>
       </c>
       <c r="L7" s="6" t="s">
+        <v>368</v>
+      </c>
+      <c r="M7" s="6" t="s">
         <v>369</v>
-      </c>
-      <c r="M7" s="6" t="s">
-        <v>370</v>
       </c>
       <c r="N7" s="6"/>
       <c r="O7" s="6"/>
@@ -27733,16 +27727,16 @@
         <v>22</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="F8" s="6" t="s">
         <v>29</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="H8" s="6" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="I8" s="6" t="s">
         <v>236</v>
@@ -27752,10 +27746,10 @@
         <v>25</v>
       </c>
       <c r="L8" s="6" t="s">
+        <v>310</v>
+      </c>
+      <c r="M8" s="6" t="s">
         <v>311</v>
-      </c>
-      <c r="M8" s="6" t="s">
-        <v>312</v>
       </c>
       <c r="N8" s="6"/>
       <c r="O8" s="6"/>
@@ -27775,16 +27769,16 @@
         <v>10</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="F9" s="6" t="s">
         <v>29</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="H9" s="6" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="I9" s="6" t="s">
         <v>31</v>
@@ -27794,10 +27788,10 @@
         <v>25</v>
       </c>
       <c r="L9" s="6" t="s">
+        <v>372</v>
+      </c>
+      <c r="M9" s="6" t="s">
         <v>373</v>
-      </c>
-      <c r="M9" s="6" t="s">
-        <v>374</v>
       </c>
       <c r="N9" s="6"/>
       <c r="O9" s="6"/>
@@ -27817,16 +27811,16 @@
         <v>26</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="F10" s="6" t="s">
         <v>29</v>
       </c>
       <c r="G10" s="6" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="H10" s="6" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="I10" s="6"/>
       <c r="J10" s="6"/>
@@ -27834,7 +27828,7 @@
         <v>25</v>
       </c>
       <c r="L10" s="6" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="M10" s="6" t="s">
         <v>75</v>
@@ -27857,29 +27851,29 @@
         <v>18</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="F11" s="6" t="s">
         <v>29</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="H11" s="6" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="I11" s="6" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="J11" s="6"/>
       <c r="K11" s="6" t="s">
         <v>25</v>
       </c>
       <c r="L11" s="6" t="s">
+        <v>378</v>
+      </c>
+      <c r="M11" s="6" t="s">
         <v>379</v>
-      </c>
-      <c r="M11" s="6" t="s">
-        <v>380</v>
       </c>
       <c r="N11" s="6"/>
       <c r="O11" s="6"/>
@@ -27899,29 +27893,29 @@
         <v>12</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="F12" s="6" t="s">
         <v>29</v>
       </c>
       <c r="G12" s="6" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="H12" s="6" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="I12" s="6" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="J12" s="6"/>
       <c r="K12" s="6" t="s">
         <v>25</v>
       </c>
       <c r="L12" s="6" t="s">
+        <v>381</v>
+      </c>
+      <c r="M12" s="6" t="s">
         <v>382</v>
-      </c>
-      <c r="M12" s="6" t="s">
-        <v>383</v>
       </c>
       <c r="N12" s="6"/>
       <c r="O12" s="6"/>
@@ -27941,29 +27935,29 @@
         <v>24</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="F13" s="6" t="s">
         <v>29</v>
       </c>
       <c r="G13" s="6" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="H13" s="6" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="I13" s="6" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="J13" s="6"/>
       <c r="K13" s="6" t="s">
         <v>25</v>
       </c>
       <c r="L13" s="6" t="s">
+        <v>385</v>
+      </c>
+      <c r="M13" s="6" t="s">
         <v>386</v>
-      </c>
-      <c r="M13" s="6" t="s">
-        <v>387</v>
       </c>
       <c r="N13" s="6"/>
       <c r="O13" s="6"/>
@@ -27983,16 +27977,16 @@
         <v>33</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="F14" s="6" t="s">
         <v>29</v>
       </c>
       <c r="G14" s="6" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="H14" s="6" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="I14" s="6" t="s">
         <v>31</v>
@@ -28002,10 +27996,10 @@
         <v>25</v>
       </c>
       <c r="L14" s="6" t="s">
+        <v>388</v>
+      </c>
+      <c r="M14" s="6" t="s">
         <v>389</v>
-      </c>
-      <c r="M14" s="6" t="s">
-        <v>390</v>
       </c>
       <c r="N14" s="6"/>
       <c r="O14" s="6"/>
@@ -28025,29 +28019,29 @@
         <v>38</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="F15" s="6" t="s">
         <v>29</v>
       </c>
       <c r="G15" s="6" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="H15" s="6" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="I15" s="6" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="J15" s="6"/>
       <c r="K15" s="6" t="s">
         <v>25</v>
       </c>
       <c r="L15" s="6" t="s">
+        <v>392</v>
+      </c>
+      <c r="M15" s="6" t="s">
         <v>393</v>
-      </c>
-      <c r="M15" s="6" t="s">
-        <v>394</v>
       </c>
       <c r="N15" s="6"/>
       <c r="O15" s="6"/>
@@ -28067,16 +28061,16 @@
         <v>25</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="F16" s="6" t="s">
         <v>29</v>
       </c>
       <c r="G16" s="6" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="H16" s="6" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="I16" s="6"/>
       <c r="J16" s="6"/>
@@ -28084,10 +28078,10 @@
         <v>25</v>
       </c>
       <c r="L16" s="6" t="s">
+        <v>395</v>
+      </c>
+      <c r="M16" s="6" t="s">
         <v>396</v>
-      </c>
-      <c r="M16" s="6" t="s">
-        <v>397</v>
       </c>
       <c r="N16" s="6"/>
       <c r="O16" s="6"/>
@@ -28107,16 +28101,16 @@
         <v>19</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="F17" s="6" t="s">
         <v>29</v>
       </c>
       <c r="G17" s="6" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="H17" s="6" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="I17" s="6" t="s">
         <v>190</v>
@@ -28126,10 +28120,10 @@
         <v>25</v>
       </c>
       <c r="L17" s="6" t="s">
+        <v>398</v>
+      </c>
+      <c r="M17" s="6" t="s">
         <v>399</v>
-      </c>
-      <c r="M17" s="6" t="s">
-        <v>400</v>
       </c>
       <c r="N17" s="6"/>
       <c r="O17" s="6"/>
@@ -28149,16 +28143,16 @@
         <v>23</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="F18" s="6" t="s">
         <v>29</v>
       </c>
       <c r="G18" s="6" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="H18" s="6" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="I18" s="6" t="s">
         <v>254</v>
@@ -28168,10 +28162,10 @@
         <v>25</v>
       </c>
       <c r="L18" s="6" t="s">
+        <v>401</v>
+      </c>
+      <c r="M18" s="6" t="s">
         <v>402</v>
-      </c>
-      <c r="M18" s="6" t="s">
-        <v>403</v>
       </c>
       <c r="N18" s="6"/>
       <c r="O18" s="6"/>
@@ -28191,16 +28185,16 @@
         <v>14</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="F19" s="6" t="s">
         <v>29</v>
       </c>
       <c r="G19" s="6" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="H19" s="6" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="I19" s="6" t="s">
         <v>137</v>
@@ -28210,10 +28204,10 @@
         <v>25</v>
       </c>
       <c r="L19" s="6" t="s">
+        <v>404</v>
+      </c>
+      <c r="M19" s="6" t="s">
         <v>405</v>
-      </c>
-      <c r="M19" s="6" t="s">
-        <v>406</v>
       </c>
       <c r="N19" s="6"/>
       <c r="O19" s="6"/>
@@ -28233,16 +28227,16 @@
         <v>16</v>
       </c>
       <c r="E20" s="6" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="F20" s="6" t="s">
         <v>29</v>
       </c>
       <c r="G20" s="6" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="H20" s="6" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="I20" s="6" t="s">
         <v>190</v>
@@ -28252,10 +28246,10 @@
         <v>25</v>
       </c>
       <c r="L20" s="6" t="s">
+        <v>407</v>
+      </c>
+      <c r="M20" s="6" t="s">
         <v>408</v>
-      </c>
-      <c r="M20" s="6" t="s">
-        <v>409</v>
       </c>
       <c r="N20" s="6"/>
       <c r="O20" s="6"/>
@@ -28275,16 +28269,16 @@
         <v>39</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="F21" s="6" t="s">
         <v>29</v>
       </c>
       <c r="G21" s="6" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="H21" s="6" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="I21" s="6"/>
       <c r="J21" s="6"/>
@@ -28292,10 +28286,10 @@
         <v>25</v>
       </c>
       <c r="L21" s="6" t="s">
+        <v>410</v>
+      </c>
+      <c r="M21" s="6" t="s">
         <v>411</v>
-      </c>
-      <c r="M21" s="6" t="s">
-        <v>412</v>
       </c>
       <c r="N21" s="6"/>
       <c r="O21" s="6"/>
@@ -28315,26 +28309,26 @@
         <v>36</v>
       </c>
       <c r="E22" s="6" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="F22" s="6" t="s">
         <v>29</v>
       </c>
       <c r="G22" s="6" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="H22" s="6" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="I22" s="6" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="J22" s="6"/>
       <c r="K22" s="6" t="s">
         <v>25</v>
       </c>
       <c r="L22" s="6" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="M22" s="6" t="s">
         <v>265</v>
@@ -28357,16 +28351,16 @@
         <v>11</v>
       </c>
       <c r="E23" s="6" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="F23" s="6" t="s">
         <v>29</v>
       </c>
       <c r="G23" s="6" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="H23" s="6" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="I23" s="6" t="s">
         <v>215</v>
@@ -28376,7 +28370,7 @@
         <v>25</v>
       </c>
       <c r="L23" s="6" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="M23" s="6" t="s">
         <v>144</v>
@@ -28399,16 +28393,16 @@
         <v>40</v>
       </c>
       <c r="E24" s="6" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="F24" s="6" t="s">
         <v>29</v>
       </c>
       <c r="G24" s="6" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="H24" s="6" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="I24" s="6" t="s">
         <v>240</v>
@@ -28418,10 +28412,10 @@
         <v>25</v>
       </c>
       <c r="L24" s="6" t="s">
+        <v>418</v>
+      </c>
+      <c r="M24" s="6" t="s">
         <v>419</v>
-      </c>
-      <c r="M24" s="6" t="s">
-        <v>420</v>
       </c>
       <c r="N24" s="6"/>
       <c r="O24" s="6"/>
@@ -28441,29 +28435,29 @@
         <v>17</v>
       </c>
       <c r="E25" s="6" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="F25" s="6" t="s">
         <v>29</v>
       </c>
       <c r="G25" s="6" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="H25" s="6" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="I25" s="6" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="J25" s="6"/>
       <c r="K25" s="6" t="s">
         <v>25</v>
       </c>
       <c r="L25" s="6" t="s">
+        <v>421</v>
+      </c>
+      <c r="M25" s="6" t="s">
         <v>422</v>
-      </c>
-      <c r="M25" s="6" t="s">
-        <v>423</v>
       </c>
       <c r="N25" s="6"/>
       <c r="O25" s="6"/>
@@ -28483,16 +28477,16 @@
         <v>41</v>
       </c>
       <c r="E26" s="6" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="F26" s="6" t="s">
         <v>29</v>
       </c>
       <c r="G26" s="6" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="H26" s="6" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="I26" s="6"/>
       <c r="J26" s="6"/>
@@ -28500,10 +28494,10 @@
         <v>25</v>
       </c>
       <c r="L26" s="6" t="s">
+        <v>424</v>
+      </c>
+      <c r="M26" s="6" t="s">
         <v>425</v>
-      </c>
-      <c r="M26" s="6" t="s">
-        <v>426</v>
       </c>
       <c r="N26" s="6"/>
       <c r="O26" s="6"/>
@@ -28523,29 +28517,29 @@
         <v>13</v>
       </c>
       <c r="E27" s="6" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="F27" s="6" t="s">
         <v>29</v>
       </c>
       <c r="G27" s="6" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="H27" s="6" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="I27" s="6" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="J27" s="6"/>
       <c r="K27" s="6" t="s">
         <v>25</v>
       </c>
       <c r="L27" s="6" t="s">
+        <v>428</v>
+      </c>
+      <c r="M27" s="6" t="s">
         <v>429</v>
-      </c>
-      <c r="M27" s="6" t="s">
-        <v>430</v>
       </c>
       <c r="N27" s="6"/>
       <c r="O27" s="6"/>
@@ -28565,29 +28559,29 @@
         <v>3</v>
       </c>
       <c r="E28" s="6" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="F28" s="6" t="s">
         <v>29</v>
       </c>
       <c r="G28" s="6" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="H28" s="6" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="I28" s="6" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="J28" s="6"/>
       <c r="K28" s="6" t="s">
         <v>25</v>
       </c>
       <c r="L28" s="6" t="s">
+        <v>432</v>
+      </c>
+      <c r="M28" s="6" t="s">
         <v>433</v>
-      </c>
-      <c r="M28" s="6" t="s">
-        <v>434</v>
       </c>
       <c r="N28" s="6"/>
       <c r="O28" s="6"/>
@@ -28607,16 +28601,16 @@
         <v>28</v>
       </c>
       <c r="E29" s="6" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="F29" s="6" t="s">
         <v>29</v>
       </c>
       <c r="G29" s="6" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="H29" s="6" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="I29" s="6"/>
       <c r="J29" s="6"/>
@@ -28624,10 +28618,10 @@
         <v>25</v>
       </c>
       <c r="L29" s="6" t="s">
+        <v>432</v>
+      </c>
+      <c r="M29" s="6" t="s">
         <v>433</v>
-      </c>
-      <c r="M29" s="6" t="s">
-        <v>434</v>
       </c>
       <c r="N29" s="6"/>
       <c r="O29" s="6"/>
@@ -28647,16 +28641,16 @@
         <v>37</v>
       </c>
       <c r="E30" s="6" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="F30" s="6" t="s">
         <v>29</v>
       </c>
       <c r="G30" s="6" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="H30" s="6" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="I30" s="6" t="s">
         <v>287</v>
@@ -28666,10 +28660,10 @@
         <v>25</v>
       </c>
       <c r="L30" s="6" t="s">
+        <v>436</v>
+      </c>
+      <c r="M30" s="6" t="s">
         <v>437</v>
-      </c>
-      <c r="M30" s="6" t="s">
-        <v>438</v>
       </c>
       <c r="N30" s="6"/>
       <c r="O30" s="6"/>
@@ -28689,16 +28683,16 @@
         <v>31</v>
       </c>
       <c r="E31" s="6" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="F31" s="6" t="s">
         <v>29</v>
       </c>
       <c r="G31" s="6" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="H31" s="6" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="I31" s="6"/>
       <c r="J31" s="6"/>
@@ -28706,10 +28700,10 @@
         <v>25</v>
       </c>
       <c r="L31" s="6" t="s">
+        <v>439</v>
+      </c>
+      <c r="M31" s="6" t="s">
         <v>440</v>
-      </c>
-      <c r="M31" s="6" t="s">
-        <v>441</v>
       </c>
       <c r="N31" s="6"/>
       <c r="O31" s="6"/>
@@ -28729,29 +28723,29 @@
         <v>27</v>
       </c>
       <c r="E32" s="6" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="F32" s="6" t="s">
         <v>29</v>
       </c>
       <c r="G32" s="6" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="H32" s="6" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="I32" s="6" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="J32" s="6"/>
       <c r="K32" s="6" t="s">
         <v>52</v>
       </c>
       <c r="L32" s="6" t="s">
+        <v>443</v>
+      </c>
+      <c r="M32" s="6" t="s">
         <v>444</v>
-      </c>
-      <c r="M32" s="6" t="s">
-        <v>445</v>
       </c>
       <c r="N32" s="6"/>
       <c r="O32" s="6"/>
@@ -28771,16 +28765,16 @@
         <v>20</v>
       </c>
       <c r="E33" s="6" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="F33" s="6" t="s">
         <v>29</v>
       </c>
       <c r="G33" s="6" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="H33" s="6" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="I33" s="6" t="s">
         <v>190</v>
@@ -28790,10 +28784,10 @@
         <v>25</v>
       </c>
       <c r="L33" s="6" t="s">
+        <v>446</v>
+      </c>
+      <c r="M33" s="6" t="s">
         <v>447</v>
-      </c>
-      <c r="M33" s="6" t="s">
-        <v>448</v>
       </c>
       <c r="N33" s="6"/>
       <c r="O33" s="6"/>
@@ -28809,19 +28803,19 @@
         <v>15</v>
       </c>
       <c r="E34" s="6" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="F34" s="6" t="s">
         <v>29</v>
       </c>
       <c r="G34" s="6" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="H34" s="6" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="I34" s="6" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="J34" s="6"/>
       <c r="K34" s="6" t="s">
@@ -28845,16 +28839,16 @@
         <v>29</v>
       </c>
       <c r="E35" s="6" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="F35" s="6" t="s">
         <v>29</v>
       </c>
       <c r="G35" s="6" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="H35" s="6" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="I35" s="6"/>
       <c r="J35" s="6"/>
@@ -29766,7 +29760,7 @@
         <v>0</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>2</v>
@@ -29839,26 +29833,26 @@
         <v>512</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="F4" s="6" t="s">
         <v>29</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="H4" s="6" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="I4" s="6" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="J4" s="6"/>
       <c r="K4" s="6" t="s">
         <v>25</v>
       </c>
       <c r="L4" s="6" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="M4" s="6"/>
       <c r="N4" s="6"/>
@@ -29879,29 +29873,29 @@
         <v>504</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="F5" s="6" t="s">
         <v>29</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="H5" s="6" t="s">
+        <v>342</v>
+      </c>
+      <c r="I5" s="6" t="s">
         <v>343</v>
-      </c>
-      <c r="I5" s="6" t="s">
-        <v>344</v>
       </c>
       <c r="J5" s="6"/>
       <c r="K5" s="6" t="s">
         <v>25</v>
       </c>
       <c r="L5" s="6" t="s">
+        <v>456</v>
+      </c>
+      <c r="M5" s="6" t="s">
         <v>457</v>
-      </c>
-      <c r="M5" s="6" t="s">
-        <v>458</v>
       </c>
       <c r="N5" s="6"/>
       <c r="O5" s="6"/>
@@ -29921,26 +29915,26 @@
         <v>509</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="F6" s="6" t="s">
         <v>29</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="H6" s="6" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="I6" s="6" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="J6" s="6"/>
       <c r="K6" s="6" t="s">
         <v>25</v>
       </c>
       <c r="L6" s="6" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="M6" s="6" t="s">
         <v>144</v>
@@ -29963,16 +29957,16 @@
         <v>503</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="F7" s="6" t="s">
         <v>29</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="H7" s="6" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="I7" s="6" t="s">
         <v>31</v>
@@ -29982,10 +29976,10 @@
         <v>25</v>
       </c>
       <c r="L7" s="6" t="s">
+        <v>462</v>
+      </c>
+      <c r="M7" s="6" t="s">
         <v>463</v>
-      </c>
-      <c r="M7" s="6" t="s">
-        <v>464</v>
       </c>
       <c r="N7" s="6"/>
       <c r="O7" s="6"/>
@@ -30005,16 +29999,16 @@
         <v>515</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="F8" s="6" t="s">
         <v>29</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="H8" s="6" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="I8" s="6" t="s">
         <v>178</v>
@@ -30024,10 +30018,10 @@
         <v>25</v>
       </c>
       <c r="L8" s="6" t="s">
+        <v>465</v>
+      </c>
+      <c r="M8" s="6" t="s">
         <v>466</v>
-      </c>
-      <c r="M8" s="6" t="s">
-        <v>467</v>
       </c>
       <c r="N8" s="6"/>
       <c r="O8" s="6"/>
@@ -30047,29 +30041,29 @@
         <v>513</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="F9" s="6" t="s">
         <v>29</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="H9" s="6" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="I9" s="6" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="J9" s="6"/>
       <c r="K9" s="6" t="s">
         <v>25</v>
       </c>
       <c r="L9" s="6" t="s">
+        <v>468</v>
+      </c>
+      <c r="M9" s="6" t="s">
         <v>469</v>
-      </c>
-      <c r="M9" s="6" t="s">
-        <v>470</v>
       </c>
       <c r="N9" s="6"/>
       <c r="O9" s="6"/>
@@ -30089,16 +30083,16 @@
         <v>507</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="F10" s="6" t="s">
         <v>29</v>
       </c>
       <c r="G10" s="6" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="H10" s="6" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="I10" s="6" t="s">
         <v>190</v>
@@ -30108,10 +30102,10 @@
         <v>25</v>
       </c>
       <c r="L10" s="6" t="s">
+        <v>471</v>
+      </c>
+      <c r="M10" s="6" t="s">
         <v>472</v>
-      </c>
-      <c r="M10" s="6" t="s">
-        <v>473</v>
       </c>
       <c r="N10" s="6"/>
       <c r="O10" s="6"/>
@@ -30131,16 +30125,16 @@
         <v>522</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="F11" s="6" t="s">
         <v>29</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="H11" s="6" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="I11" s="6"/>
       <c r="J11" s="6"/>
@@ -30148,10 +30142,10 @@
         <v>25</v>
       </c>
       <c r="L11" s="6" t="s">
+        <v>474</v>
+      </c>
+      <c r="M11" s="6" t="s">
         <v>475</v>
-      </c>
-      <c r="M11" s="6" t="s">
-        <v>476</v>
       </c>
       <c r="N11" s="6"/>
       <c r="O11" s="6"/>
@@ -30171,16 +30165,16 @@
         <v>511</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="F12" s="6" t="s">
         <v>29</v>
       </c>
       <c r="G12" s="6" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="H12" s="6" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="I12" s="6" t="s">
         <v>104</v>
@@ -30190,10 +30184,10 @@
         <v>25</v>
       </c>
       <c r="L12" s="6" t="s">
+        <v>477</v>
+      </c>
+      <c r="M12" s="6" t="s">
         <v>478</v>
-      </c>
-      <c r="M12" s="6" t="s">
-        <v>479</v>
       </c>
       <c r="N12" s="6"/>
       <c r="O12" s="6"/>
@@ -30213,29 +30207,29 @@
         <v>520</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="F13" s="6" t="s">
         <v>29</v>
       </c>
       <c r="G13" s="6" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="H13" s="6" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="I13" s="6" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="J13" s="6"/>
       <c r="K13" s="6" t="s">
         <v>52</v>
       </c>
       <c r="L13" s="6" t="s">
+        <v>481</v>
+      </c>
+      <c r="M13" s="6" t="s">
         <v>482</v>
-      </c>
-      <c r="M13" s="6" t="s">
-        <v>483</v>
       </c>
       <c r="N13" s="6"/>
       <c r="O13" s="6"/>
@@ -30255,16 +30249,16 @@
         <v>516</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="F14" s="6" t="s">
         <v>29</v>
       </c>
       <c r="G14" s="6" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="H14" s="6" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="I14" s="6" t="s">
         <v>190</v>
@@ -30274,10 +30268,10 @@
         <v>25</v>
       </c>
       <c r="L14" s="6" t="s">
+        <v>484</v>
+      </c>
+      <c r="M14" s="6" t="s">
         <v>485</v>
-      </c>
-      <c r="M14" s="6" t="s">
-        <v>486</v>
       </c>
       <c r="N14" s="6"/>
       <c r="O14" s="6"/>
@@ -30297,29 +30291,29 @@
         <v>519</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="F15" s="6" t="s">
         <v>29</v>
       </c>
       <c r="G15" s="6" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="H15" s="6" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="I15" s="6" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="J15" s="6"/>
       <c r="K15" s="6" t="s">
         <v>25</v>
       </c>
       <c r="L15" s="6" t="s">
+        <v>488</v>
+      </c>
+      <c r="M15" s="6" t="s">
         <v>489</v>
-      </c>
-      <c r="M15" s="6" t="s">
-        <v>490</v>
       </c>
       <c r="N15" s="6"/>
       <c r="O15" s="6"/>
@@ -30339,29 +30333,29 @@
         <v>501</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="F16" s="6" t="s">
         <v>29</v>
       </c>
       <c r="G16" s="6" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="H16" s="6" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="I16" s="6" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="J16" s="6"/>
       <c r="K16" s="6" t="s">
         <v>25</v>
       </c>
       <c r="L16" s="6" t="s">
+        <v>491</v>
+      </c>
+      <c r="M16" s="6" t="s">
         <v>492</v>
-      </c>
-      <c r="M16" s="6" t="s">
-        <v>493</v>
       </c>
       <c r="N16" s="6"/>
       <c r="O16" s="6"/>
@@ -30381,16 +30375,16 @@
         <v>523</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="F17" s="6" t="s">
         <v>29</v>
       </c>
       <c r="G17" s="6" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="H17" s="6" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="I17" s="6" t="s">
         <v>37</v>
@@ -30400,10 +30394,10 @@
         <v>25</v>
       </c>
       <c r="L17" s="6" t="s">
+        <v>494</v>
+      </c>
+      <c r="M17" s="6" t="s">
         <v>495</v>
-      </c>
-      <c r="M17" s="6" t="s">
-        <v>496</v>
       </c>
       <c r="N17" s="6"/>
       <c r="O17" s="6"/>
@@ -30423,29 +30417,29 @@
         <v>518</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="F18" s="6" t="s">
         <v>29</v>
       </c>
       <c r="G18" s="6" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="H18" s="6" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="I18" s="6" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="J18" s="6"/>
       <c r="K18" s="6" t="s">
         <v>25</v>
       </c>
       <c r="L18" s="6" t="s">
+        <v>498</v>
+      </c>
+      <c r="M18" s="6" t="s">
         <v>499</v>
-      </c>
-      <c r="M18" s="6" t="s">
-        <v>500</v>
       </c>
       <c r="N18" s="6"/>
       <c r="O18" s="6"/>
@@ -30461,19 +30455,19 @@
         <v>506</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="F19" s="6" t="s">
         <v>29</v>
       </c>
       <c r="G19" s="6" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="H19" s="6" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="I19" s="6" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="J19" s="6"/>
       <c r="K19" s="6" t="s">
@@ -30497,16 +30491,16 @@
         <v>514</v>
       </c>
       <c r="E20" s="6" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="F20" s="6" t="s">
         <v>29</v>
       </c>
       <c r="G20" s="6" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="H20" s="6" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="I20" s="6" t="s">
         <v>190</v>
@@ -31620,7 +31614,7 @@
         <v>0</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>2</v>
@@ -31693,29 +31687,29 @@
         <v>434</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="F4" s="6" t="s">
         <v>21</v>
       </c>
       <c r="G4" s="6" t="s">
+        <v>505</v>
+      </c>
+      <c r="H4" s="6" t="s">
         <v>506</v>
       </c>
-      <c r="H4" s="6" t="s">
+      <c r="I4" s="6" t="s">
         <v>507</v>
-      </c>
-      <c r="I4" s="6" t="s">
-        <v>508</v>
       </c>
       <c r="J4" s="6"/>
       <c r="K4" s="6" t="s">
         <v>25</v>
       </c>
       <c r="L4" s="6" t="s">
+        <v>508</v>
+      </c>
+      <c r="M4" s="6" t="s">
         <v>509</v>
-      </c>
-      <c r="M4" s="6" t="s">
-        <v>510</v>
       </c>
       <c r="N4" s="6"/>
       <c r="O4" s="6"/>
@@ -31735,29 +31729,29 @@
         <v>407</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="F5" s="6" t="s">
         <v>21</v>
       </c>
       <c r="G5" s="6" t="s">
+        <v>505</v>
+      </c>
+      <c r="H5" s="6" t="s">
         <v>506</v>
       </c>
-      <c r="H5" s="6" t="s">
-        <v>507</v>
-      </c>
       <c r="I5" s="6" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="J5" s="6"/>
       <c r="K5" s="6" t="s">
         <v>25</v>
       </c>
       <c r="L5" s="6" t="s">
+        <v>511</v>
+      </c>
+      <c r="M5" s="6" t="s">
         <v>512</v>
-      </c>
-      <c r="M5" s="6" t="s">
-        <v>513</v>
       </c>
       <c r="N5" s="6"/>
       <c r="O5" s="6"/>
@@ -31777,16 +31771,16 @@
         <v>433</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="F6" s="6" t="s">
         <v>21</v>
       </c>
       <c r="G6" s="6" t="s">
+        <v>505</v>
+      </c>
+      <c r="H6" s="6" t="s">
         <v>506</v>
-      </c>
-      <c r="H6" s="6" t="s">
-        <v>507</v>
       </c>
       <c r="I6" s="6" t="s">
         <v>31</v>
@@ -31796,10 +31790,10 @@
         <v>25</v>
       </c>
       <c r="L6" s="6" t="s">
+        <v>514</v>
+      </c>
+      <c r="M6" s="6" t="s">
         <v>515</v>
-      </c>
-      <c r="M6" s="6" t="s">
-        <v>516</v>
       </c>
       <c r="N6" s="6"/>
       <c r="O6" s="6"/>
@@ -31819,29 +31813,29 @@
         <v>404</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="F7" s="6" t="s">
         <v>21</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="H7" s="6" t="s">
+        <v>517</v>
+      </c>
+      <c r="I7" s="6" t="s">
         <v>518</v>
-      </c>
-      <c r="I7" s="6" t="s">
-        <v>519</v>
       </c>
       <c r="J7" s="6"/>
       <c r="K7" s="6" t="s">
         <v>25</v>
       </c>
       <c r="L7" s="6" t="s">
+        <v>519</v>
+      </c>
+      <c r="M7" s="6" t="s">
         <v>520</v>
-      </c>
-      <c r="M7" s="6" t="s">
-        <v>521</v>
       </c>
       <c r="N7" s="6"/>
       <c r="O7" s="6"/>
@@ -31861,29 +31855,29 @@
         <v>436</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="F8" s="6" t="s">
         <v>21</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="H8" s="6" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="I8" s="6" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="J8" s="6"/>
       <c r="K8" s="6" t="s">
         <v>25</v>
       </c>
       <c r="L8" s="6" t="s">
+        <v>523</v>
+      </c>
+      <c r="M8" s="6" t="s">
         <v>524</v>
-      </c>
-      <c r="M8" s="6" t="s">
-        <v>525</v>
       </c>
       <c r="N8" s="6"/>
       <c r="O8" s="6"/>
@@ -33137,7 +33131,7 @@
         <v>0</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>2</v>
@@ -33210,29 +33204,29 @@
         <v>435</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="F4" s="6" t="s">
         <v>21</v>
       </c>
       <c r="G4" s="6" t="s">
+        <v>527</v>
+      </c>
+      <c r="H4" s="6" t="s">
         <v>528</v>
       </c>
-      <c r="H4" s="6" t="s">
-        <v>529</v>
-      </c>
       <c r="I4" s="6" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="J4" s="6"/>
       <c r="K4" s="6" t="s">
         <v>25</v>
       </c>
       <c r="L4" s="6" t="s">
+        <v>529</v>
+      </c>
+      <c r="M4" s="6" t="s">
         <v>530</v>
-      </c>
-      <c r="M4" s="6" t="s">
-        <v>531</v>
       </c>
       <c r="N4" s="6"/>
       <c r="O4" s="6"/>
@@ -33252,29 +33246,29 @@
         <v>402</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="F5" s="6" t="s">
         <v>21</v>
       </c>
       <c r="G5" s="6" t="s">
+        <v>527</v>
+      </c>
+      <c r="H5" s="6" t="s">
         <v>528</v>
       </c>
-      <c r="H5" s="6" t="s">
-        <v>529</v>
-      </c>
       <c r="I5" s="6" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="J5" s="6"/>
       <c r="K5" s="6" t="s">
         <v>25</v>
       </c>
       <c r="L5" s="6" t="s">
+        <v>533</v>
+      </c>
+      <c r="M5" s="6" t="s">
         <v>534</v>
-      </c>
-      <c r="M5" s="6" t="s">
-        <v>535</v>
       </c>
       <c r="N5" s="6"/>
       <c r="O5" s="6"/>
@@ -33294,29 +33288,29 @@
         <v>430</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="F6" s="6" t="s">
         <v>21</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="H6" s="6" t="s">
+        <v>536</v>
+      </c>
+      <c r="I6" s="6" t="s">
         <v>537</v>
-      </c>
-      <c r="I6" s="6" t="s">
-        <v>538</v>
       </c>
       <c r="J6" s="6"/>
       <c r="K6" s="6" t="s">
         <v>25</v>
       </c>
       <c r="L6" s="6" t="s">
+        <v>538</v>
+      </c>
+      <c r="M6" s="6" t="s">
         <v>539</v>
-      </c>
-      <c r="M6" s="6" t="s">
-        <v>540</v>
       </c>
       <c r="N6" s="6"/>
       <c r="O6" s="6"/>
@@ -33336,29 +33330,29 @@
         <v>431</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="F7" s="6" t="s">
         <v>21</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="H7" s="6" t="s">
+        <v>536</v>
+      </c>
+      <c r="I7" s="6" t="s">
         <v>537</v>
-      </c>
-      <c r="I7" s="6" t="s">
-        <v>538</v>
       </c>
       <c r="J7" s="6"/>
       <c r="K7" s="6" t="s">
         <v>25</v>
       </c>
       <c r="L7" s="6" t="s">
+        <v>541</v>
+      </c>
+      <c r="M7" s="6" t="s">
         <v>542</v>
-      </c>
-      <c r="M7" s="6" t="s">
-        <v>543</v>
       </c>
       <c r="N7" s="6"/>
       <c r="O7" s="6"/>
@@ -33378,29 +33372,29 @@
         <v>428</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="F8" s="6" t="s">
         <v>21</v>
       </c>
       <c r="G8" s="6" t="s">
+        <v>527</v>
+      </c>
+      <c r="H8" s="6" t="s">
         <v>528</v>
       </c>
-      <c r="H8" s="6" t="s">
-        <v>529</v>
-      </c>
       <c r="I8" s="6" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="J8" s="6"/>
       <c r="K8" s="6" t="s">
         <v>52</v>
       </c>
       <c r="L8" s="6" t="s">
+        <v>544</v>
+      </c>
+      <c r="M8" s="6" t="s">
         <v>545</v>
-      </c>
-      <c r="M8" s="6" t="s">
-        <v>546</v>
       </c>
       <c r="N8" s="6"/>
       <c r="O8" s="6"/>
@@ -33416,19 +33410,19 @@
         <v>421</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="F9" s="6" t="s">
         <v>21</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="H9" s="6" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="I9" s="6" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="J9" s="6"/>
       <c r="K9" s="6" t="s">
@@ -34677,7 +34671,7 @@
         <v>0</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>2</v>
@@ -34750,16 +34744,16 @@
         <v>429</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="F4" s="6" t="s">
         <v>29</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="H4" s="6" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="I4" s="6" t="s">
         <v>204</v>
@@ -34769,10 +34763,10 @@
         <v>25</v>
       </c>
       <c r="L4" s="6" t="s">
+        <v>551</v>
+      </c>
+      <c r="M4" s="6" t="s">
         <v>552</v>
-      </c>
-      <c r="M4" s="6" t="s">
-        <v>553</v>
       </c>
       <c r="N4" s="6"/>
       <c r="O4" s="6"/>
@@ -34792,29 +34786,29 @@
         <v>424</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="F5" s="6" t="s">
         <v>29</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="H5" s="6" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="I5" s="6" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="J5" s="6"/>
       <c r="K5" s="6" t="s">
         <v>25</v>
       </c>
       <c r="L5" s="6" t="s">
+        <v>555</v>
+      </c>
+      <c r="M5" s="6" t="s">
         <v>556</v>
-      </c>
-      <c r="M5" s="6" t="s">
-        <v>557</v>
       </c>
       <c r="N5" s="6"/>
       <c r="O5" s="6"/>
@@ -34834,16 +34828,16 @@
         <v>408</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="F6" s="6" t="s">
         <v>29</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="H6" s="6" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="I6" s="6" t="s">
         <v>31</v>
@@ -34853,10 +34847,10 @@
         <v>25</v>
       </c>
       <c r="L6" s="6" t="s">
+        <v>558</v>
+      </c>
+      <c r="M6" s="6" t="s">
         <v>559</v>
-      </c>
-      <c r="M6" s="6" t="s">
-        <v>560</v>
       </c>
       <c r="N6" s="6"/>
       <c r="O6" s="6"/>
@@ -34876,16 +34870,16 @@
         <v>417</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="F7" s="6" t="s">
         <v>29</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="H7" s="6" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="I7" s="6" t="s">
         <v>31</v>
@@ -34895,10 +34889,10 @@
         <v>25</v>
       </c>
       <c r="L7" s="6" t="s">
+        <v>561</v>
+      </c>
+      <c r="M7" s="6" t="s">
         <v>562</v>
-      </c>
-      <c r="M7" s="6" t="s">
-        <v>563</v>
       </c>
       <c r="N7" s="6"/>
       <c r="O7" s="6"/>
@@ -34918,16 +34912,16 @@
         <v>412</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="F8" s="6" t="s">
         <v>29</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="H8" s="6" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="I8" s="6" t="s">
         <v>190</v>
@@ -34937,10 +34931,10 @@
         <v>25</v>
       </c>
       <c r="L8" s="6" t="s">
+        <v>564</v>
+      </c>
+      <c r="M8" s="6" t="s">
         <v>565</v>
-      </c>
-      <c r="M8" s="6" t="s">
-        <v>566</v>
       </c>
       <c r="N8" s="6"/>
       <c r="O8" s="6"/>
@@ -34960,16 +34954,16 @@
         <v>414</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="F9" s="6" t="s">
         <v>29</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="H9" s="6" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="I9" s="6" t="s">
         <v>190</v>
@@ -34979,10 +34973,10 @@
         <v>25</v>
       </c>
       <c r="L9" s="6" t="s">
+        <v>567</v>
+      </c>
+      <c r="M9" s="6" t="s">
         <v>568</v>
-      </c>
-      <c r="M9" s="6" t="s">
-        <v>569</v>
       </c>
       <c r="N9" s="6"/>
       <c r="O9" s="6"/>
@@ -35002,16 +34996,16 @@
         <v>432</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="F10" s="6" t="s">
         <v>29</v>
       </c>
       <c r="G10" s="6" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="H10" s="6" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="I10" s="6"/>
       <c r="J10" s="6"/>
@@ -35019,10 +35013,10 @@
         <v>25</v>
       </c>
       <c r="L10" s="6" t="s">
+        <v>570</v>
+      </c>
+      <c r="M10" s="6" t="s">
         <v>571</v>
-      </c>
-      <c r="M10" s="6" t="s">
-        <v>572</v>
       </c>
       <c r="N10" s="6"/>
       <c r="O10" s="6"/>
@@ -35042,16 +35036,16 @@
         <v>422</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="F11" s="6" t="s">
         <v>29</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="H11" s="6" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="I11" s="6" t="s">
         <v>37</v>
@@ -35061,10 +35055,10 @@
         <v>25</v>
       </c>
       <c r="L11" s="6" t="s">
+        <v>573</v>
+      </c>
+      <c r="M11" s="6" t="s">
         <v>574</v>
-      </c>
-      <c r="M11" s="6" t="s">
-        <v>575</v>
       </c>
       <c r="N11" s="6"/>
       <c r="O11" s="6"/>
@@ -35084,29 +35078,29 @@
         <v>438</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="F12" s="6" t="s">
         <v>29</v>
       </c>
       <c r="G12" s="6" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="H12" s="6" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="I12" s="6" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="J12" s="6"/>
       <c r="K12" s="6" t="s">
         <v>25</v>
       </c>
       <c r="L12" s="6" t="s">
+        <v>577</v>
+      </c>
+      <c r="M12" s="6" t="s">
         <v>578</v>
-      </c>
-      <c r="M12" s="6" t="s">
-        <v>579</v>
       </c>
       <c r="N12" s="6"/>
       <c r="O12" s="6"/>
@@ -35126,16 +35120,16 @@
         <v>423</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="F13" s="6" t="s">
         <v>29</v>
       </c>
       <c r="G13" s="6" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="H13" s="6" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="I13" s="6" t="s">
         <v>37</v>
@@ -35145,10 +35139,10 @@
         <v>25</v>
       </c>
       <c r="L13" s="6" t="s">
+        <v>580</v>
+      </c>
+      <c r="M13" s="6" t="s">
         <v>581</v>
-      </c>
-      <c r="M13" s="6" t="s">
-        <v>582</v>
       </c>
       <c r="N13" s="6"/>
       <c r="O13" s="6"/>
@@ -35168,16 +35162,16 @@
         <v>415</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="F14" s="6" t="s">
         <v>29</v>
       </c>
       <c r="G14" s="6" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="H14" s="6" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="I14" s="6" t="s">
         <v>190</v>
@@ -35187,10 +35181,10 @@
         <v>25</v>
       </c>
       <c r="L14" s="6" t="s">
+        <v>583</v>
+      </c>
+      <c r="M14" s="6" t="s">
         <v>584</v>
-      </c>
-      <c r="M14" s="6" t="s">
-        <v>585</v>
       </c>
       <c r="N14" s="6"/>
       <c r="O14" s="6"/>
@@ -35210,29 +35204,29 @@
         <v>426</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="F15" s="6" t="s">
         <v>29</v>
       </c>
       <c r="G15" s="6" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="H15" s="6" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="I15" s="6" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="J15" s="6"/>
       <c r="K15" s="6" t="s">
         <v>25</v>
       </c>
       <c r="L15" s="6" t="s">
+        <v>586</v>
+      </c>
+      <c r="M15" s="6" t="s">
         <v>587</v>
-      </c>
-      <c r="M15" s="6" t="s">
-        <v>588</v>
       </c>
       <c r="N15" s="6"/>
       <c r="O15" s="6"/>
@@ -35248,19 +35242,19 @@
         <v>401</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="F16" s="6" t="s">
         <v>29</v>
       </c>
       <c r="G16" s="6" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="H16" s="6" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="I16" s="6" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="J16" s="6"/>
       <c r="K16" s="6" t="s">
@@ -35284,19 +35278,19 @@
         <v>411</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="F17" s="6" t="s">
         <v>29</v>
       </c>
       <c r="G17" s="6" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="H17" s="6" t="s">
+        <v>506</v>
+      </c>
+      <c r="I17" s="6" t="s">
         <v>507</v>
-      </c>
-      <c r="I17" s="6" t="s">
-        <v>508</v>
       </c>
       <c r="J17" s="6"/>
       <c r="K17" s="6" t="s">
